--- a/raw_data/20200818_saline/20200818_Sensor2_Test_30.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_30.xlsx
@@ -1,553 +1,969 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3D3A5B-EA17-458F-9BE1-7F391487BEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>26472.640399</v>
       </c>
       <c r="B2" s="1">
-        <v>7.353511</v>
+        <v>7.3535110000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1244.980000</v>
+        <v>1244.98</v>
       </c>
       <c r="D2" s="1">
-        <v>-310.630000</v>
+        <v>-310.63</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>26482.691858</v>
+        <v>26482.691857999998</v>
       </c>
       <c r="G2" s="1">
-        <v>7.356303</v>
+        <v>7.3563029999999996</v>
       </c>
       <c r="H2" s="1">
-        <v>1270.350000</v>
+        <v>1270.3499999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-267.506000</v>
+        <v>-267.50599999999997</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>26493.144055</v>
+        <v>26493.144055000001</v>
       </c>
       <c r="L2" s="1">
-        <v>7.359207</v>
+        <v>7.3592069999999996</v>
       </c>
       <c r="M2" s="1">
-        <v>1305.730000</v>
+        <v>1305.73</v>
       </c>
       <c r="N2" s="1">
-        <v>-204.579000</v>
+        <v>-204.57900000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>26503.634407</v>
+        <v>26503.634407000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>7.362121</v>
+        <v>7.3621210000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1317.640000</v>
+        <v>1317.64</v>
       </c>
       <c r="S2" s="1">
-        <v>-185.672000</v>
+        <v>-185.672</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>26514.212584</v>
+        <v>26514.212584000001</v>
       </c>
       <c r="V2" s="1">
-        <v>7.365059</v>
+        <v>7.3650589999999996</v>
       </c>
       <c r="W2" s="1">
-        <v>1330.520000</v>
+        <v>1330.52</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.777000</v>
+        <v>-171.77699999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>26524.678667</v>
@@ -556,919 +972,919 @@
         <v>7.367966</v>
       </c>
       <c r="AB2" s="1">
-        <v>1347.790000</v>
+        <v>1347.79</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.141000</v>
+        <v>-169.14099999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>26535.220140</v>
+        <v>26535.220140000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>7.370894</v>
+        <v>7.3708939999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>1360.570000</v>
+        <v>1360.57</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.706000</v>
+        <v>-178.70599999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>26545.654975</v>
+        <v>26545.654975000001</v>
       </c>
       <c r="AK2" s="1">
         <v>7.373793</v>
       </c>
       <c r="AL2" s="1">
-        <v>1380.990000</v>
+        <v>1380.99</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.433000</v>
+        <v>-208.43299999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>26556.209346</v>
       </c>
       <c r="AP2" s="1">
-        <v>7.376725</v>
+        <v>7.3767250000000004</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1402.530000</v>
+        <v>1402.53</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.234000</v>
+        <v>-252.23400000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>26567.249359</v>
+        <v>26567.249359000001</v>
       </c>
       <c r="AU2" s="1">
         <v>7.379791</v>
       </c>
       <c r="AV2" s="1">
-        <v>1426.990000</v>
+        <v>1426.99</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.158000</v>
+        <v>-312.15800000000002</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>26578.378068</v>
+        <v>26578.378068000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>7.382883</v>
+        <v>7.3828829999999996</v>
       </c>
       <c r="BA2" s="1">
-        <v>1446.280000</v>
+        <v>1446.28</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.271000</v>
+        <v>-364.27100000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>26589.276195</v>
+        <v>26589.276194999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>7.385910</v>
+        <v>7.38591</v>
       </c>
       <c r="BF2" s="1">
-        <v>1531.410000</v>
+        <v>1531.41</v>
       </c>
       <c r="BG2" s="1">
-        <v>-612.654000</v>
+        <v>-612.654</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>26600.274093</v>
       </c>
       <c r="BJ2" s="1">
-        <v>7.388965</v>
+        <v>7.3889649999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1685.870000</v>
+        <v>1685.87</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1058.020000</v>
+        <v>-1058.02</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>26611.778804</v>
+        <v>26611.778804000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>7.392161</v>
+        <v>7.3921609999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1980.510000</v>
+        <v>1980.51</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1829.250000</v>
+        <v>-1829.25</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>26624.080573</v>
+        <v>26624.080572999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>7.395578</v>
+        <v>7.3955780000000004</v>
       </c>
       <c r="BU2" s="1">
-        <v>2365.470000</v>
+        <v>2365.4699999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2719.480000</v>
+        <v>-2719.48</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>26635.014910</v>
+        <v>26635.014910000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>7.398615</v>
+        <v>7.3986150000000004</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2852.190000</v>
+        <v>2852.19</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3690.320000</v>
+        <v>-3690.32</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>26645.893136</v>
+        <v>26645.893135999999</v>
       </c>
       <c r="CD2" s="1">
         <v>7.401637</v>
       </c>
       <c r="CE2" s="1">
-        <v>4283.260000</v>
+        <v>4283.26</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6036.490000</v>
+        <v>-6036.49</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>26473.056574</v>
+        <v>26473.056573999998</v>
       </c>
       <c r="B3" s="1">
-        <v>7.353627</v>
+        <v>7.3536270000000004</v>
       </c>
       <c r="C3" s="1">
-        <v>1244.840000</v>
+        <v>1244.8399999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-310.621000</v>
+        <v>-310.62099999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>26483.101027</v>
+        <v>26483.101027000001</v>
       </c>
       <c r="G3" s="1">
-        <v>7.356417</v>
+        <v>7.3564170000000004</v>
       </c>
       <c r="H3" s="1">
-        <v>1269.940000</v>
+        <v>1269.94</v>
       </c>
       <c r="I3" s="1">
-        <v>-267.108000</v>
+        <v>-267.108</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>26493.555203</v>
       </c>
       <c r="L3" s="1">
-        <v>7.359321</v>
+        <v>7.3593209999999996</v>
       </c>
       <c r="M3" s="1">
-        <v>1305.810000</v>
+        <v>1305.81</v>
       </c>
       <c r="N3" s="1">
-        <v>-204.513000</v>
+        <v>-204.51300000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>26504.058486</v>
+        <v>26504.058486000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.362238</v>
+        <v>7.3622379999999996</v>
       </c>
       <c r="R3" s="1">
-        <v>1317.590000</v>
+        <v>1317.59</v>
       </c>
       <c r="S3" s="1">
-        <v>-185.662000</v>
+        <v>-185.66200000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>26514.618345</v>
+        <v>26514.618344999999</v>
       </c>
       <c r="V3" s="1">
-        <v>7.365172</v>
+        <v>7.3651720000000003</v>
       </c>
       <c r="W3" s="1">
-        <v>1330.540000</v>
+        <v>1330.54</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.671000</v>
+        <v>-171.67099999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>26525.044714</v>
       </c>
       <c r="AA3" s="1">
-        <v>7.368068</v>
+        <v>7.3680680000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1347.660000</v>
+        <v>1347.66</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.185000</v>
+        <v>-169.185</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>26535.598126</v>
+        <v>26535.598126000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>7.370999</v>
+        <v>7.3709990000000003</v>
       </c>
       <c r="AG3" s="1">
-        <v>1360.460000</v>
+        <v>1360.46</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.744000</v>
+        <v>-178.744</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>26546.023998</v>
+        <v>26546.023998000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>7.373896</v>
+        <v>7.3738960000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>1380.980000</v>
+        <v>1380.98</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.413000</v>
+        <v>-208.41300000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>26556.596257</v>
+        <v>26556.596257000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>7.376832</v>
+        <v>7.3768320000000003</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1402.570000</v>
+        <v>1402.57</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.192000</v>
+        <v>-252.19200000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>26567.612865</v>
+        <v>26567.612864999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>7.379892</v>
+        <v>7.3798919999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1427.030000</v>
+        <v>1427.03</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.148000</v>
+        <v>-312.14800000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>26578.739619</v>
       </c>
       <c r="AZ3" s="1">
-        <v>7.382983</v>
+        <v>7.3829830000000003</v>
       </c>
       <c r="BA3" s="1">
-        <v>1446.260000</v>
+        <v>1446.26</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.250000</v>
+        <v>-364.25</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>26589.640279</v>
+        <v>26589.640278999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>7.386011</v>
+        <v>7.3860109999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1531.420000</v>
+        <v>1531.42</v>
       </c>
       <c r="BG3" s="1">
-        <v>-612.684000</v>
+        <v>-612.68399999999997</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>26600.648605</v>
+        <v>26600.648604999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>7.389069</v>
+        <v>7.3890690000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1685.800000</v>
+        <v>1685.8</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1057.970000</v>
+        <v>-1057.97</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>26612.602651</v>
+        <v>26612.602651000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>7.392390</v>
+        <v>7.3923899999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1980.650000</v>
+        <v>1980.65</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1829.280000</v>
+        <v>-1829.28</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>26624.577076</v>
+        <v>26624.577076000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>7.395716</v>
+        <v>7.3957160000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>2365.560000</v>
+        <v>2365.56</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2719.380000</v>
+        <v>-2719.38</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>26635.469709</v>
+        <v>26635.469709000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>7.398742</v>
+        <v>7.3987420000000004</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2851.050000</v>
+        <v>2851.05</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3690.880000</v>
+        <v>-3690.88</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>26646.444190</v>
+        <v>26646.444189999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>7.401790</v>
+        <v>7.4017900000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4266.620000</v>
+        <v>4266.62</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6022.380000</v>
+        <v>-6022.38</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>26473.368030</v>
+        <v>26473.368030000001</v>
       </c>
       <c r="B4" s="1">
-        <v>7.353713</v>
+        <v>7.3537129999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1244.790000</v>
+        <v>1244.79</v>
       </c>
       <c r="D4" s="1">
-        <v>-310.672000</v>
+        <v>-310.67200000000003</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>26483.416481</v>
       </c>
       <c r="G4" s="1">
-        <v>7.356505</v>
+        <v>7.3565050000000003</v>
       </c>
       <c r="H4" s="1">
-        <v>1269.990000</v>
+        <v>1269.99</v>
       </c>
       <c r="I4" s="1">
-        <v>-267.571000</v>
+        <v>-267.57100000000003</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>26493.900948</v>
+        <v>26493.900947999999</v>
       </c>
       <c r="L4" s="1">
-        <v>7.359417</v>
+        <v>7.3594169999999997</v>
       </c>
       <c r="M4" s="1">
-        <v>1305.900000</v>
+        <v>1305.9000000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-203.913000</v>
+        <v>-203.91300000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>26504.407210</v>
+        <v>26504.407210000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>7.362335</v>
+        <v>7.3623349999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1317.550000</v>
+        <v>1317.55</v>
       </c>
       <c r="S4" s="1">
-        <v>-185.667000</v>
+        <v>-185.667</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>26514.965052</v>
       </c>
       <c r="V4" s="1">
-        <v>7.365268</v>
+        <v>7.3652680000000004</v>
       </c>
       <c r="W4" s="1">
-        <v>1330.380000</v>
+        <v>1330.38</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.796000</v>
+        <v>-171.79599999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>26525.393401</v>
+        <v>26525.393401000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>7.368165</v>
+        <v>7.3681650000000003</v>
       </c>
       <c r="AB4" s="1">
-        <v>1347.740000</v>
+        <v>1347.74</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.241000</v>
+        <v>-169.24100000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>26535.939340</v>
+        <v>26535.939340000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>7.371094</v>
+        <v>7.3710940000000003</v>
       </c>
       <c r="AG4" s="1">
-        <v>1360.510000</v>
+        <v>1360.51</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.690000</v>
+        <v>-178.69</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>26546.374670</v>
+        <v>26546.374670000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>7.373993</v>
+        <v>7.3739929999999996</v>
       </c>
       <c r="AL4" s="1">
-        <v>1380.980000</v>
+        <v>1380.98</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.435000</v>
+        <v>-208.435</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>26556.952848</v>
+        <v>26556.952848000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>7.376931</v>
+        <v>7.3769309999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1402.550000</v>
+        <v>1402.55</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.221000</v>
+        <v>-252.221</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>26567.976435</v>
       </c>
       <c r="AU4" s="1">
-        <v>7.379993</v>
+        <v>7.3799929999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1426.990000</v>
+        <v>1426.99</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.153000</v>
+        <v>-312.15300000000002</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>26579.097234</v>
+        <v>26579.097234000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>7.383083</v>
+        <v>7.3830830000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1446.260000</v>
+        <v>1446.26</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.270000</v>
+        <v>-364.27</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>26590.363429</v>
+        <v>26590.363429000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>7.386212</v>
+        <v>7.3862120000000004</v>
       </c>
       <c r="BF4" s="1">
-        <v>1531.400000</v>
+        <v>1531.4</v>
       </c>
       <c r="BG4" s="1">
-        <v>-612.665000</v>
+        <v>-612.66499999999996</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>26601.398026</v>
+        <v>26601.398025999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>7.389277</v>
+        <v>7.3892769999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1685.870000</v>
+        <v>1685.87</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1058.090000</v>
+        <v>-1058.0899999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>26613.023787</v>
+        <v>26613.023786999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>7.392507</v>
+        <v>7.3925070000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1980.520000</v>
+        <v>1980.52</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1829.440000</v>
+        <v>-1829.44</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>26625.004123</v>
+        <v>26625.004122999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>7.395834</v>
+        <v>7.3958339999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>2365.580000</v>
+        <v>2365.58</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2719.090000</v>
+        <v>-2719.09</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>26635.890812</v>
+        <v>26635.890812000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>7.398859</v>
+        <v>7.3988589999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2851.900000</v>
+        <v>2851.9</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3691.850000</v>
+        <v>-3691.85</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>26647.299294</v>
       </c>
       <c r="CD4" s="1">
-        <v>7.402028</v>
+        <v>7.4020279999999996</v>
       </c>
       <c r="CE4" s="1">
-        <v>4285.350000</v>
+        <v>4285.3500000000004</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6032.870000</v>
+        <v>-6032.87</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>26473.705806</v>
+        <v>26473.705806000002</v>
       </c>
       <c r="B5" s="1">
-        <v>7.353807</v>
+        <v>7.3538069999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>1244.750000</v>
+        <v>1244.75</v>
       </c>
       <c r="D5" s="1">
-        <v>-310.377000</v>
+        <v>-310.37700000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>26483.763682</v>
+        <v>26483.763682000001</v>
       </c>
       <c r="G5" s="1">
-        <v>7.356601</v>
+        <v>7.3566010000000004</v>
       </c>
       <c r="H5" s="1">
-        <v>1270.690000</v>
+        <v>1270.69</v>
       </c>
       <c r="I5" s="1">
-        <v>-267.690000</v>
+        <v>-267.69</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>26494.244147</v>
+        <v>26494.244147000001</v>
       </c>
       <c r="L5" s="1">
-        <v>7.359512</v>
+        <v>7.3595119999999996</v>
       </c>
       <c r="M5" s="1">
-        <v>1305.560000</v>
+        <v>1305.56</v>
       </c>
       <c r="N5" s="1">
-        <v>-204.006000</v>
+        <v>-204.006</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>26504.754373</v>
       </c>
       <c r="Q5" s="1">
-        <v>7.362432</v>
+        <v>7.3624320000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1317.550000</v>
+        <v>1317.55</v>
       </c>
       <c r="S5" s="1">
-        <v>-185.600000</v>
+        <v>-185.6</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>26515.305806</v>
       </c>
       <c r="V5" s="1">
-        <v>7.365363</v>
+        <v>7.3653630000000003</v>
       </c>
       <c r="W5" s="1">
-        <v>1330.490000</v>
+        <v>1330.49</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.782000</v>
+        <v>-171.78200000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>26526.090281</v>
+        <v>26526.090281000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>7.368358</v>
+        <v>7.3683579999999997</v>
       </c>
       <c r="AB5" s="1">
-        <v>1347.730000</v>
+        <v>1347.73</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.015000</v>
+        <v>-169.01499999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>26536.626299</v>
       </c>
       <c r="AF5" s="1">
-        <v>7.371285</v>
+        <v>7.3712850000000003</v>
       </c>
       <c r="AG5" s="1">
-        <v>1360.500000</v>
+        <v>1360.5</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.710000</v>
+        <v>-178.71</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>26547.069565</v>
+        <v>26547.069565000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>7.374186</v>
+        <v>7.3741859999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1381.020000</v>
+        <v>1381.02</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.447000</v>
+        <v>-208.447</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>26557.675519</v>
       </c>
       <c r="AP5" s="1">
-        <v>7.377132</v>
+        <v>7.3771319999999996</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1402.530000</v>
+        <v>1402.53</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.174000</v>
+        <v>-252.17400000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>26568.707041</v>
+        <v>26568.707041000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>7.380196</v>
+        <v>7.3801959999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>1427.010000</v>
+        <v>1427.01</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.160000</v>
+        <v>-312.16000000000003</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>26579.815085</v>
+        <v>26579.815084999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>7.383282</v>
+        <v>7.3832820000000003</v>
       </c>
       <c r="BA5" s="1">
-        <v>1446.260000</v>
+        <v>1446.26</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.252000</v>
+        <v>-364.25200000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>26590.752277</v>
       </c>
       <c r="BE5" s="1">
-        <v>7.386320</v>
+        <v>7.3863200000000004</v>
       </c>
       <c r="BF5" s="1">
-        <v>1531.430000</v>
+        <v>1531.43</v>
       </c>
       <c r="BG5" s="1">
-        <v>-612.681000</v>
+        <v>-612.68100000000004</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>26601.804777</v>
+        <v>26601.804777000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>7.389390</v>
+        <v>7.3893899999999997</v>
       </c>
       <c r="BK5" s="1">
-        <v>1685.770000</v>
+        <v>1685.77</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1057.980000</v>
+        <v>-1057.98</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>26613.419570</v>
+        <v>26613.419569999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>7.392617</v>
+        <v>7.3926170000000004</v>
       </c>
       <c r="BP5" s="1">
-        <v>1980.450000</v>
+        <v>1980.45</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1829.210000</v>
+        <v>-1829.21</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>26625.752617</v>
+        <v>26625.752616999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>7.396042</v>
+        <v>7.3960419999999996</v>
       </c>
       <c r="BU5" s="1">
-        <v>2365.550000</v>
+        <v>2365.5500000000002</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2718.770000</v>
+        <v>-2718.77</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>26636.491467</v>
@@ -1477,694 +1893,694 @@
         <v>7.399025</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2851.440000</v>
+        <v>2851.44</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3690.480000</v>
+        <v>-3690.48</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>26647.519022</v>
       </c>
       <c r="CD5" s="1">
-        <v>7.402089</v>
+        <v>7.4020890000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4284.070000</v>
+        <v>4284.07</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6032.190000</v>
+        <v>-6032.19</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>26474.047565</v>
+        <v>26474.047565000001</v>
       </c>
       <c r="B6" s="1">
-        <v>7.353902</v>
+        <v>7.3539019999999997</v>
       </c>
       <c r="C6" s="1">
-        <v>1244.810000</v>
+        <v>1244.81</v>
       </c>
       <c r="D6" s="1">
-        <v>-310.843000</v>
+        <v>-310.84300000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>26484.106733</v>
+        <v>26484.106733000001</v>
       </c>
       <c r="G6" s="1">
-        <v>7.356696</v>
+        <v>7.3566960000000003</v>
       </c>
       <c r="H6" s="1">
-        <v>1270.630000</v>
+        <v>1270.6300000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-267.854000</v>
+        <v>-267.85399999999998</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>26494.934082</v>
       </c>
       <c r="L6" s="1">
-        <v>7.359704</v>
+        <v>7.3597039999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>1305.580000</v>
+        <v>1305.58</v>
       </c>
       <c r="N6" s="1">
-        <v>-204.162000</v>
+        <v>-204.16200000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>26505.452281</v>
+        <v>26505.452281000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.362626</v>
+        <v>7.3626259999999997</v>
       </c>
       <c r="R6" s="1">
-        <v>1317.600000</v>
+        <v>1317.6</v>
       </c>
       <c r="S6" s="1">
-        <v>-185.628000</v>
+        <v>-185.62799999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>26515.994214</v>
+        <v>26515.994213999998</v>
       </c>
       <c r="V6" s="1">
-        <v>7.365554</v>
+        <v>7.3655540000000004</v>
       </c>
       <c r="W6" s="1">
-        <v>1330.460000</v>
+        <v>1330.46</v>
       </c>
       <c r="X6" s="1">
-        <v>-172.011000</v>
+        <v>-172.011</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>26526.439497</v>
+        <v>26526.439496999999</v>
       </c>
       <c r="AA6" s="1">
         <v>7.368455</v>
       </c>
       <c r="AB6" s="1">
-        <v>1347.620000</v>
+        <v>1347.62</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.925000</v>
+        <v>-168.92500000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>26536.976474</v>
+        <v>26536.976473999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>7.371382</v>
+        <v>7.3713819999999997</v>
       </c>
       <c r="AG6" s="1">
-        <v>1360.520000</v>
+        <v>1360.52</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.641000</v>
+        <v>-178.64099999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>26547.419741</v>
+        <v>26547.419741000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>7.374283</v>
+        <v>7.3742830000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1380.960000</v>
+        <v>1380.96</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.437000</v>
+        <v>-208.43700000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>26558.063422</v>
+        <v>26558.063421999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>7.377240</v>
+        <v>7.3772399999999996</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1402.510000</v>
+        <v>1402.51</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.174000</v>
+        <v>-252.17400000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>26569.099376</v>
+        <v>26569.099375999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>7.380305</v>
+        <v>7.3803049999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1427.000000</v>
+        <v>1427</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.118000</v>
+        <v>-312.11799999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>26580.176033</v>
       </c>
       <c r="AZ6" s="1">
-        <v>7.383382</v>
+        <v>7.3833820000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1446.250000</v>
+        <v>1446.25</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.234000</v>
+        <v>-364.23399999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>26591.112553</v>
+        <v>26591.112552999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>7.386420</v>
+        <v>7.3864200000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1531.360000</v>
+        <v>1531.36</v>
       </c>
       <c r="BG6" s="1">
-        <v>-612.695000</v>
+        <v>-612.69500000000005</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>26602.179728</v>
+        <v>26602.179727999999</v>
       </c>
       <c r="BJ6" s="1">
         <v>7.389494</v>
       </c>
       <c r="BK6" s="1">
-        <v>1685.700000</v>
+        <v>1685.7</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1058.060000</v>
+        <v>-1058.06</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>26614.159593</v>
       </c>
       <c r="BO6" s="1">
-        <v>7.392822</v>
+        <v>7.3928219999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1980.260000</v>
+        <v>1980.26</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1829.220000</v>
+        <v>-1829.22</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>26625.880059</v>
+        <v>26625.880058999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>7.396078</v>
+        <v>7.3960780000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>2365.340000</v>
+        <v>2365.34</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2718.540000</v>
+        <v>-2718.54</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>26636.767739</v>
+        <v>26636.767738999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>7.399102</v>
+        <v>7.3991020000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2851.000000</v>
+        <v>2851</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3691.170000</v>
+        <v>-3691.17</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>26648.039324</v>
+        <v>26648.039324000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>7.402233</v>
+        <v>7.4022329999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>4270.550000</v>
+        <v>4270.55</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6023.450000</v>
+        <v>-6023.45</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>26474.733516</v>
       </c>
       <c r="B7" s="1">
-        <v>7.354093</v>
+        <v>7.3540929999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>1244.710000</v>
+        <v>1244.71</v>
       </c>
       <c r="D7" s="1">
-        <v>-310.677000</v>
+        <v>-310.67700000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>26484.797840</v>
+        <v>26484.797839999999</v>
       </c>
       <c r="G7" s="1">
-        <v>7.356888</v>
+        <v>7.3568879999999996</v>
       </c>
       <c r="H7" s="1">
-        <v>1270.050000</v>
+        <v>1270.05</v>
       </c>
       <c r="I7" s="1">
-        <v>-267.797000</v>
+        <v>-267.79700000000003</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>26495.281815</v>
+        <v>26495.281814999998</v>
       </c>
       <c r="L7" s="1">
         <v>7.359801</v>
       </c>
       <c r="M7" s="1">
-        <v>1305.850000</v>
+        <v>1305.8499999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-204.259000</v>
+        <v>-204.25899999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>26505.800436</v>
+        <v>26505.800436000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.362722</v>
+        <v>7.3627219999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>1317.650000</v>
+        <v>1317.65</v>
       </c>
       <c r="S7" s="1">
-        <v>-185.637000</v>
+        <v>-185.637</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>26516.338965</v>
+        <v>26516.338964999999</v>
       </c>
       <c r="V7" s="1">
-        <v>7.365650</v>
+        <v>7.3656499999999996</v>
       </c>
       <c r="W7" s="1">
-        <v>1330.480000</v>
+        <v>1330.48</v>
       </c>
       <c r="X7" s="1">
-        <v>-172.105000</v>
+        <v>-172.10499999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>26526.789144</v>
+        <v>26526.789143999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>7.368553</v>
+        <v>7.3685530000000004</v>
       </c>
       <c r="AB7" s="1">
-        <v>1347.800000</v>
+        <v>1347.8</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.127000</v>
+        <v>-169.12700000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>26537.319739</v>
+        <v>26537.319738999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>7.371478</v>
+        <v>7.3714779999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>1360.510000</v>
+        <v>1360.51</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.731000</v>
+        <v>-178.73099999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>26547.768428</v>
+        <v>26547.768427999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>7.374380</v>
+        <v>7.3743800000000004</v>
       </c>
       <c r="AL7" s="1">
-        <v>1380.950000</v>
+        <v>1380.95</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.479000</v>
+        <v>-208.47900000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>26558.441341</v>
+        <v>26558.441341000002</v>
       </c>
       <c r="AP7" s="1">
         <v>7.377345</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1402.520000</v>
+        <v>1402.52</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.180000</v>
+        <v>-252.18</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>26569.465919</v>
+        <v>26569.465918999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>7.380407</v>
+        <v>7.3804069999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1426.970000</v>
+        <v>1426.97</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.164000</v>
+        <v>-312.16399999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>26580.534641</v>
+        <v>26580.534640999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>7.383482</v>
+        <v>7.3834819999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1446.260000</v>
+        <v>1446.26</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.236000</v>
+        <v>-364.23599999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>26591.756158</v>
       </c>
       <c r="BE7" s="1">
-        <v>7.386599</v>
+        <v>7.3865990000000004</v>
       </c>
       <c r="BF7" s="1">
-        <v>1531.390000</v>
+        <v>1531.39</v>
       </c>
       <c r="BG7" s="1">
-        <v>-612.714000</v>
+        <v>-612.71400000000006</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>26602.871641</v>
+        <v>26602.871641000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>7.389687</v>
+        <v>7.3896870000000003</v>
       </c>
       <c r="BK7" s="1">
-        <v>1685.840000</v>
+        <v>1685.84</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1058.030000</v>
+        <v>-1058.03</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>26614.670472</v>
+        <v>26614.670472000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>7.392964</v>
+        <v>7.3929640000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1980.190000</v>
+        <v>1980.19</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1829.370000</v>
+        <v>-1829.37</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>26626.292233</v>
       </c>
       <c r="BT7" s="1">
-        <v>7.396192</v>
+        <v>7.3961920000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2365.240000</v>
+        <v>2365.2399999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2718.280000</v>
+        <v>-2718.28</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>26637.188347</v>
+        <v>26637.188346999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>7.399219</v>
+        <v>7.3992190000000004</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2851.420000</v>
+        <v>2851.42</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3691.370000</v>
+        <v>-3691.37</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>26648.558723</v>
+        <v>26648.558722999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>7.402377</v>
+        <v>7.4023770000000004</v>
       </c>
       <c r="CE7" s="1">
-        <v>4263.300000</v>
+        <v>4263.3</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6036.220000</v>
+        <v>-6036.22</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>26475.072780</v>
+        <v>26475.072779999999</v>
       </c>
       <c r="B8" s="1">
-        <v>7.354187</v>
+        <v>7.3541869999999996</v>
       </c>
       <c r="C8" s="1">
-        <v>1244.850000</v>
+        <v>1244.8499999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-310.713000</v>
+        <v>-310.71300000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>26485.140104</v>
+        <v>26485.140103999998</v>
       </c>
       <c r="G8" s="1">
-        <v>7.356983</v>
+        <v>7.3569829999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>1271.030000</v>
+        <v>1271.03</v>
       </c>
       <c r="I8" s="1">
-        <v>-267.021000</v>
+        <v>-267.02100000000002</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>26495.629506</v>
+        <v>26495.629506000001</v>
       </c>
       <c r="L8" s="1">
-        <v>7.359897</v>
+        <v>7.3598970000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.930000</v>
+        <v>1305.93</v>
       </c>
       <c r="N8" s="1">
-        <v>-204.332000</v>
+        <v>-204.33199999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>26506.148628</v>
+        <v>26506.148627999999</v>
       </c>
       <c r="Q8" s="1">
         <v>7.362819</v>
       </c>
       <c r="R8" s="1">
-        <v>1317.570000</v>
+        <v>1317.57</v>
       </c>
       <c r="S8" s="1">
-        <v>-185.633000</v>
+        <v>-185.63300000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>26516.681185</v>
+        <v>26516.681185000001</v>
       </c>
       <c r="V8" s="1">
-        <v>7.365745</v>
+        <v>7.3657450000000004</v>
       </c>
       <c r="W8" s="1">
-        <v>1330.350000</v>
+        <v>1330.35</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.956000</v>
+        <v>-171.95599999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>26527.439431</v>
+        <v>26527.439430999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>7.368733</v>
+        <v>7.3687329999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>1347.630000</v>
+        <v>1347.63</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.186000</v>
+        <v>-169.18600000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>26537.953593</v>
+        <v>26537.953592999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>7.371654</v>
+        <v>7.3716540000000004</v>
       </c>
       <c r="AG8" s="1">
-        <v>1360.510000</v>
+        <v>1360.51</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.706000</v>
+        <v>-178.70599999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>26548.429131</v>
+        <v>26548.429131000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>7.374564</v>
+        <v>7.3745640000000003</v>
       </c>
       <c r="AL8" s="1">
-        <v>1381.020000</v>
+        <v>1381.02</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.428000</v>
+        <v>-208.428</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>26559.105981</v>
+        <v>26559.105981000001</v>
       </c>
       <c r="AP8" s="1">
         <v>7.377529</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1402.540000</v>
+        <v>1402.54</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.229000</v>
+        <v>-252.22900000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>26570.134030</v>
+        <v>26570.134030000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>7.380593</v>
+        <v>7.3805930000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1426.990000</v>
+        <v>1426.99</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.155000</v>
+        <v>-312.15499999999997</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>26581.201761</v>
@@ -2173,587 +2589,587 @@
         <v>7.383667</v>
       </c>
       <c r="BA8" s="1">
-        <v>1446.250000</v>
+        <v>1446.25</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.273000</v>
+        <v>-364.27300000000002</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>26592.227033</v>
+        <v>26592.227032999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>7.386730</v>
+        <v>7.38673</v>
       </c>
       <c r="BF8" s="1">
-        <v>1531.390000</v>
+        <v>1531.39</v>
       </c>
       <c r="BG8" s="1">
-        <v>-612.660000</v>
+        <v>-612.66</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>26603.310105</v>
       </c>
       <c r="BJ8" s="1">
-        <v>7.389808</v>
+        <v>7.3898080000000004</v>
       </c>
       <c r="BK8" s="1">
-        <v>1685.710000</v>
+        <v>1685.71</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1058.070000</v>
+        <v>-1058.07</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>26615.082153</v>
+        <v>26615.082152999999</v>
       </c>
       <c r="BO8" s="1">
         <v>7.393078</v>
       </c>
       <c r="BP8" s="1">
-        <v>1980.370000</v>
+        <v>1980.37</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1829.430000</v>
+        <v>-1829.43</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>26626.718296</v>
+        <v>26626.718295999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>7.396311</v>
+        <v>7.3963109999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>2365.970000</v>
+        <v>2365.9699999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2718.000000</v>
+        <v>-2718</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>26637.607999</v>
       </c>
       <c r="BY8" s="1">
-        <v>7.399336</v>
+        <v>7.3993359999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2850.880000</v>
+        <v>2850.88</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3691.300000</v>
+        <v>-3691.3</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>26649.078443</v>
+        <v>26649.078442999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>7.402522</v>
+        <v>7.4025220000000003</v>
       </c>
       <c r="CE8" s="1">
-        <v>4276.320000</v>
+        <v>4276.32</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6041.210000</v>
+        <v>-6041.21</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>26475.412539</v>
+        <v>26475.412539000001</v>
       </c>
       <c r="B9" s="1">
-        <v>7.354281</v>
+        <v>7.3542810000000003</v>
       </c>
       <c r="C9" s="1">
-        <v>1245.020000</v>
+        <v>1245.02</v>
       </c>
       <c r="D9" s="1">
-        <v>-310.607000</v>
+        <v>-310.60700000000003</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>26485.483311</v>
       </c>
       <c r="G9" s="1">
-        <v>7.357079</v>
+        <v>7.3570789999999997</v>
       </c>
       <c r="H9" s="1">
-        <v>1270.180000</v>
+        <v>1270.18</v>
       </c>
       <c r="I9" s="1">
-        <v>-266.787000</v>
+        <v>-266.78699999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>26496.282239</v>
       </c>
       <c r="L9" s="1">
-        <v>7.360078</v>
+        <v>7.3600779999999997</v>
       </c>
       <c r="M9" s="1">
-        <v>1305.910000</v>
+        <v>1305.9100000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-204.256000</v>
+        <v>-204.256</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>26506.803348</v>
+        <v>26506.803348000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>7.363001</v>
+        <v>7.3630009999999997</v>
       </c>
       <c r="R9" s="1">
-        <v>1317.550000</v>
+        <v>1317.55</v>
       </c>
       <c r="S9" s="1">
-        <v>-185.653000</v>
+        <v>-185.65299999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>26517.335429</v>
+        <v>26517.335428999999</v>
       </c>
       <c r="V9" s="1">
-        <v>7.365927</v>
+        <v>7.3659270000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1330.550000</v>
+        <v>1330.55</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.983000</v>
+        <v>-171.983</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>26527.833718</v>
+        <v>26527.833718000002</v>
       </c>
       <c r="AA9" s="1">
         <v>7.368843</v>
       </c>
       <c r="AB9" s="1">
-        <v>1347.840000</v>
+        <v>1347.84</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.156000</v>
+        <v>-169.15600000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>26538.350392</v>
       </c>
       <c r="AF9" s="1">
-        <v>7.371764</v>
+        <v>7.3717639999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>1360.470000</v>
+        <v>1360.47</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.712000</v>
+        <v>-178.71199999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>26548.815979</v>
+        <v>26548.815978999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>7.374671</v>
+        <v>7.3746710000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>1380.950000</v>
+        <v>1380.95</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.453000</v>
+        <v>-208.453</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>26559.524606</v>
+        <v>26559.524605999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>7.377646</v>
+        <v>7.3776460000000004</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1402.570000</v>
+        <v>1402.57</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.185000</v>
+        <v>-252.185</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>26570.590350</v>
+        <v>26570.590349999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>7.380720</v>
+        <v>7.3807200000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>1427.020000</v>
+        <v>1427.02</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.133000</v>
+        <v>-312.13299999999998</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>26581.643201</v>
+        <v>26581.643200999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>7.383790</v>
+        <v>7.3837900000000003</v>
       </c>
       <c r="BA9" s="1">
-        <v>1446.270000</v>
+        <v>1446.27</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.266000</v>
+        <v>-364.26600000000002</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>26592.587346</v>
       </c>
       <c r="BE9" s="1">
-        <v>7.386830</v>
+        <v>7.3868299999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1531.380000</v>
+        <v>1531.38</v>
       </c>
       <c r="BG9" s="1">
-        <v>-612.704000</v>
+        <v>-612.70399999999995</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>26603.685079</v>
+        <v>26603.685078999999</v>
       </c>
       <c r="BJ9" s="1">
         <v>7.389913</v>
       </c>
       <c r="BK9" s="1">
-        <v>1685.820000</v>
+        <v>1685.82</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1057.910000</v>
+        <v>-1057.9100000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>26615.477464</v>
       </c>
       <c r="BO9" s="1">
-        <v>7.393188</v>
+        <v>7.3931880000000003</v>
       </c>
       <c r="BP9" s="1">
-        <v>1980.130000</v>
+        <v>1980.13</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1829.300000</v>
+        <v>-1829.3</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>26627.152792</v>
+        <v>26627.152792000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>7.396431</v>
+        <v>7.3964309999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>2365.480000</v>
+        <v>2365.48</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2717.760000</v>
+        <v>-2717.76</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>26638.065274</v>
       </c>
       <c r="BY9" s="1">
-        <v>7.399463</v>
+        <v>7.3994629999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2851.570000</v>
+        <v>2851.57</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3690.760000</v>
+        <v>-3690.76</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>26649.595274</v>
+        <v>26649.595273999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>7.402665</v>
+        <v>7.4026649999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>4279.060000</v>
+        <v>4279.0600000000004</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6027.090000</v>
+        <v>-6027.09</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>26476.060812</v>
       </c>
       <c r="B10" s="1">
-        <v>7.354461</v>
+        <v>7.3544609999999997</v>
       </c>
       <c r="C10" s="1">
-        <v>1244.810000</v>
+        <v>1244.81</v>
       </c>
       <c r="D10" s="1">
-        <v>-310.801000</v>
+        <v>-310.80099999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>26486.143486</v>
+        <v>26486.143486000001</v>
       </c>
       <c r="G10" s="1">
-        <v>7.357262</v>
+        <v>7.3572620000000004</v>
       </c>
       <c r="H10" s="1">
-        <v>1269.800000</v>
+        <v>1269.8</v>
       </c>
       <c r="I10" s="1">
-        <v>-267.757000</v>
+        <v>-267.75700000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>26496.663136</v>
+        <v>26496.663135999999</v>
       </c>
       <c r="L10" s="1">
-        <v>7.360184</v>
+        <v>7.3601840000000003</v>
       </c>
       <c r="M10" s="1">
-        <v>1305.570000</v>
+        <v>1305.57</v>
       </c>
       <c r="N10" s="1">
-        <v>-204.659000</v>
+        <v>-204.65899999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>26507.194196</v>
       </c>
       <c r="Q10" s="1">
-        <v>7.363109</v>
+        <v>7.3631089999999997</v>
       </c>
       <c r="R10" s="1">
-        <v>1317.510000</v>
+        <v>1317.51</v>
       </c>
       <c r="S10" s="1">
-        <v>-185.572000</v>
+        <v>-185.572</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>26517.710371</v>
+        <v>26517.710371000001</v>
       </c>
       <c r="V10" s="1">
-        <v>7.366031</v>
+        <v>7.3660310000000004</v>
       </c>
       <c r="W10" s="1">
-        <v>1330.500000</v>
+        <v>1330.5</v>
       </c>
       <c r="X10" s="1">
-        <v>-172.049000</v>
+        <v>-172.04900000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>26528.180455</v>
+        <v>26528.180455000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>7.368939</v>
+        <v>7.3689390000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1347.510000</v>
+        <v>1347.51</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.159000</v>
+        <v>-169.15899999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>26538.692632</v>
+        <v>26538.692631999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.371859</v>
+        <v>7.3718589999999997</v>
       </c>
       <c r="AG10" s="1">
-        <v>1360.460000</v>
+        <v>1360.46</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.694000</v>
+        <v>-178.69399999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>26549.163211</v>
+        <v>26549.163210999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>7.374768</v>
+        <v>7.3747680000000004</v>
       </c>
       <c r="AL10" s="1">
-        <v>1380.980000</v>
+        <v>1380.98</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.413000</v>
+        <v>-208.41300000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>26559.913469</v>
+        <v>26559.913468999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>7.377754</v>
+        <v>7.3777540000000004</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1402.530000</v>
+        <v>1402.53</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.194000</v>
+        <v>-252.19399999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>26570.955443</v>
+        <v>26570.955442999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>7.380821</v>
+        <v>7.3808210000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1427.000000</v>
+        <v>1427</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.152000</v>
+        <v>-312.15199999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>26582.000816</v>
       </c>
       <c r="AZ10" s="1">
-        <v>7.383889</v>
+        <v>7.3838889999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1446.290000</v>
+        <v>1446.29</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.250000</v>
+        <v>-364.25</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>26592.951410</v>
+        <v>26592.951410000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>7.386931</v>
+        <v>7.3869309999999997</v>
       </c>
       <c r="BF10" s="1">
-        <v>1531.390000</v>
+        <v>1531.39</v>
       </c>
       <c r="BG10" s="1">
-        <v>-612.648000</v>
+        <v>-612.64800000000002</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>26604.233158</v>
+        <v>26604.233157999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>7.390065</v>
+        <v>7.3900649999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1685.710000</v>
+        <v>1685.71</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1057.990000</v>
+        <v>-1057.99</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>26615.899559</v>
+        <v>26615.899559000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>7.393305</v>
+        <v>7.3933049999999998</v>
       </c>
       <c r="BP10" s="1">
-        <v>1980.170000</v>
+        <v>1980.17</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1829.220000</v>
+        <v>-1829.22</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>26627.549592</v>
+        <v>26627.549591999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>7.396542</v>
+        <v>7.3965420000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>2365.800000</v>
+        <v>2365.8000000000002</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2717.600000</v>
+        <v>-2717.6</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>26638.482409</v>
@@ -2762,165 +3178,165 @@
         <v>7.399578</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2851.160000</v>
+        <v>2851.16</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3690.770000</v>
+        <v>-3690.77</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>26650.114585</v>
+        <v>26650.114584999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>7.402810</v>
+        <v>7.4028099999999997</v>
       </c>
       <c r="CE10" s="1">
-        <v>4263.040000</v>
+        <v>4263.04</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6025.120000</v>
+        <v>-6025.12</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>26476.441772</v>
+        <v>26476.441771999998</v>
       </c>
       <c r="B11" s="1">
-        <v>7.354567</v>
+        <v>7.3545670000000003</v>
       </c>
       <c r="C11" s="1">
-        <v>1244.810000</v>
+        <v>1244.81</v>
       </c>
       <c r="D11" s="1">
-        <v>-310.370000</v>
+        <v>-310.37</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>26486.518957</v>
       </c>
       <c r="G11" s="1">
-        <v>7.357366</v>
+        <v>7.3573659999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1270.050000</v>
+        <v>1270.05</v>
       </c>
       <c r="I11" s="1">
-        <v>-268.273000</v>
+        <v>-268.27300000000002</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>26497.010335</v>
+        <v>26497.010334999999</v>
       </c>
       <c r="L11" s="1">
-        <v>7.360281</v>
+        <v>7.3602809999999996</v>
       </c>
       <c r="M11" s="1">
-        <v>1305.690000</v>
+        <v>1305.69</v>
       </c>
       <c r="N11" s="1">
-        <v>-203.857000</v>
+        <v>-203.857</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>26507.545889</v>
+        <v>26507.545889000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>7.363207</v>
+        <v>7.3632070000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1317.610000</v>
+        <v>1317.61</v>
       </c>
       <c r="S11" s="1">
-        <v>-185.533000</v>
+        <v>-185.53299999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>26518.053733</v>
+        <v>26518.053733000001</v>
       </c>
       <c r="V11" s="1">
-        <v>7.366126</v>
+        <v>7.3661260000000004</v>
       </c>
       <c r="W11" s="1">
-        <v>1330.460000</v>
+        <v>1330.46</v>
       </c>
       <c r="X11" s="1">
-        <v>-172.025000</v>
+        <v>-172.02500000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>26528.532085</v>
+        <v>26528.532084999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>7.369037</v>
+        <v>7.3690369999999996</v>
       </c>
       <c r="AB11" s="1">
-        <v>1347.790000</v>
+        <v>1347.79</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.186000</v>
+        <v>-169.18600000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>26539.035256</v>
+        <v>26539.035255999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.371954</v>
+        <v>7.3719539999999997</v>
       </c>
       <c r="AG11" s="1">
-        <v>1360.480000</v>
+        <v>1360.48</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.706000</v>
+        <v>-178.70599999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>26549.512889</v>
+        <v>26549.512889000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>7.374865</v>
+        <v>7.3748649999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>1380.970000</v>
+        <v>1380.97</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.431000</v>
+        <v>-208.43100000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>26560.274059</v>
+        <v>26560.274058999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>7.377854</v>
+        <v>7.3778540000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1402.570000</v>
+        <v>1402.57</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.203000</v>
+        <v>-252.203</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>26571.320494</v>
@@ -2929,1615 +3345,1615 @@
         <v>7.380922</v>
       </c>
       <c r="AV11" s="1">
-        <v>1427.040000</v>
+        <v>1427.04</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.173000</v>
+        <v>-312.173</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>26582.361940</v>
+        <v>26582.361939999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>7.383989</v>
+        <v>7.3839889999999997</v>
       </c>
       <c r="BA11" s="1">
-        <v>1446.270000</v>
+        <v>1446.27</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.231000</v>
+        <v>-364.23099999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>26593.341837</v>
       </c>
       <c r="BE11" s="1">
-        <v>7.387039</v>
+        <v>7.3870389999999997</v>
       </c>
       <c r="BF11" s="1">
-        <v>1531.390000</v>
+        <v>1531.39</v>
       </c>
       <c r="BG11" s="1">
-        <v>-612.679000</v>
+        <v>-612.67899999999997</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>26604.435031</v>
+        <v>26604.435031000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>7.390121</v>
+        <v>7.3901209999999997</v>
       </c>
       <c r="BK11" s="1">
-        <v>1685.690000</v>
+        <v>1685.69</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1057.980000</v>
+        <v>-1057.98</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>26616.296854</v>
       </c>
       <c r="BO11" s="1">
-        <v>7.393416</v>
+        <v>7.3934160000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1980.410000</v>
+        <v>1980.41</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1829.080000</v>
+        <v>-1829.08</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>26627.965772</v>
       </c>
       <c r="BT11" s="1">
-        <v>7.396657</v>
+        <v>7.3966570000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>2365.670000</v>
+        <v>2365.67</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2717.370000</v>
+        <v>-2717.37</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>26638.929306</v>
+        <v>26638.929306000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>7.399703</v>
+        <v>7.3997029999999997</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2850.650000</v>
+        <v>2850.65</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3690.690000</v>
+        <v>-3690.69</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>26650.629967</v>
+        <v>26650.629967000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>7.402953</v>
+        <v>7.4029530000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>4270.810000</v>
+        <v>4270.8100000000004</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6021.570000</v>
+        <v>-6021.57</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>26476.781002</v>
       </c>
       <c r="B12" s="1">
-        <v>7.354661</v>
+        <v>7.3546610000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1245.050000</v>
+        <v>1245.05</v>
       </c>
       <c r="D12" s="1">
-        <v>-310.545000</v>
+        <v>-310.54500000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>26486.862721</v>
+        <v>26486.862721000001</v>
       </c>
       <c r="G12" s="1">
-        <v>7.357462</v>
+        <v>7.3574619999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1270.980000</v>
+        <v>1270.98</v>
       </c>
       <c r="I12" s="1">
-        <v>-267.966000</v>
+        <v>-267.96600000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>26497.356544</v>
+        <v>26497.356543999998</v>
       </c>
       <c r="L12" s="1">
-        <v>7.360377</v>
+        <v>7.3603769999999997</v>
       </c>
       <c r="M12" s="1">
-        <v>1305.990000</v>
+        <v>1305.99</v>
       </c>
       <c r="N12" s="1">
-        <v>-204.153000</v>
+        <v>-204.15299999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>26507.893088</v>
+        <v>26507.893088000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>7.363304</v>
+        <v>7.3633040000000003</v>
       </c>
       <c r="R12" s="1">
-        <v>1317.620000</v>
+        <v>1317.62</v>
       </c>
       <c r="S12" s="1">
-        <v>-185.672000</v>
+        <v>-185.672</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>26518.397827</v>
+        <v>26518.397827000001</v>
       </c>
       <c r="V12" s="1">
-        <v>7.366222</v>
+        <v>7.3662219999999996</v>
       </c>
       <c r="W12" s="1">
-        <v>1330.490000</v>
+        <v>1330.49</v>
       </c>
       <c r="X12" s="1">
-        <v>-172.004000</v>
+        <v>-172.00399999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>26528.950212</v>
       </c>
       <c r="AA12" s="1">
-        <v>7.369153</v>
+        <v>7.3691529999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>1347.630000</v>
+        <v>1347.63</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.945000</v>
+        <v>-168.94499999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>26539.449063</v>
       </c>
       <c r="AF12" s="1">
-        <v>7.372069</v>
+        <v>7.3720689999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>1360.490000</v>
+        <v>1360.49</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.708000</v>
+        <v>-178.708</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>26549.923083</v>
+        <v>26549.923083000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>7.374979</v>
+        <v>7.3749789999999997</v>
       </c>
       <c r="AL12" s="1">
-        <v>1380.970000</v>
+        <v>1380.97</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.470000</v>
+        <v>-208.47</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>26560.686268</v>
+        <v>26560.686268000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>7.377968</v>
+        <v>7.3779680000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1402.570000</v>
+        <v>1402.57</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.196000</v>
+        <v>-252.196</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>26571.742060</v>
+        <v>26571.74206</v>
       </c>
       <c r="AU12" s="1">
-        <v>7.381039</v>
+        <v>7.3810390000000003</v>
       </c>
       <c r="AV12" s="1">
-        <v>1427.010000</v>
+        <v>1427.01</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.131000</v>
+        <v>-312.13099999999997</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>26582.779038</v>
+        <v>26582.779038000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>7.384105</v>
+        <v>7.3841049999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1446.260000</v>
+        <v>1446.26</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.266000</v>
+        <v>-364.26600000000002</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>26593.673696</v>
+        <v>26593.673696000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>7.387132</v>
+        <v>7.3871320000000003</v>
       </c>
       <c r="BF12" s="1">
-        <v>1531.360000</v>
+        <v>1531.36</v>
       </c>
       <c r="BG12" s="1">
-        <v>-612.627000</v>
+        <v>-612.62699999999995</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>26604.816453</v>
+        <v>26604.816452999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>7.390227</v>
+        <v>7.3902270000000003</v>
       </c>
       <c r="BK12" s="1">
-        <v>1685.680000</v>
+        <v>1685.68</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1057.980000</v>
+        <v>-1057.98</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>26616.717462</v>
+        <v>26616.717462000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>7.393533</v>
+        <v>7.3935329999999997</v>
       </c>
       <c r="BP12" s="1">
-        <v>1980.360000</v>
+        <v>1980.36</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1829.190000</v>
+        <v>-1829.19</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>26628.377224</v>
       </c>
       <c r="BT12" s="1">
-        <v>7.396771</v>
+        <v>7.3967710000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>2365.990000</v>
+        <v>2365.9899999999998</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2717.520000</v>
+        <v>-2717.52</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>26639.351400</v>
+        <v>26639.3514</v>
       </c>
       <c r="BY12" s="1">
-        <v>7.399820</v>
+        <v>7.3998200000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2850.490000</v>
+        <v>2850.49</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3691.380000</v>
+        <v>-3691.38</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>26651.183960</v>
+        <v>26651.183959999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>7.403107</v>
+        <v>7.4031070000000003</v>
       </c>
       <c r="CE12" s="1">
-        <v>4279.340000</v>
+        <v>4279.34</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6027.160000</v>
+        <v>-6027.16</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>26477.124021</v>
       </c>
       <c r="B13" s="1">
-        <v>7.354757</v>
+        <v>7.3547570000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1244.870000</v>
+        <v>1244.8699999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-310.459000</v>
+        <v>-310.459</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>26487.206464</v>
+        <v>26487.206463999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7.357557</v>
+        <v>7.3575569999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1270.780000</v>
+        <v>1270.78</v>
       </c>
       <c r="I13" s="1">
-        <v>-267.138000</v>
+        <v>-267.13799999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>26497.773214</v>
+        <v>26497.773214000001</v>
       </c>
       <c r="L13" s="1">
         <v>7.360493</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.750000</v>
+        <v>1305.75</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.885000</v>
+        <v>-203.88499999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>26508.302752</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.363417</v>
+        <v>7.3634170000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1317.590000</v>
+        <v>1317.59</v>
       </c>
       <c r="S13" s="1">
-        <v>-185.661000</v>
+        <v>-185.661</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>26518.812514</v>
+        <v>26518.812514000001</v>
       </c>
       <c r="V13" s="1">
-        <v>7.366337</v>
+        <v>7.3663369999999997</v>
       </c>
       <c r="W13" s="1">
-        <v>1330.540000</v>
+        <v>1330.54</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.900000</v>
+        <v>-171.9</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>26529.227477</v>
       </c>
       <c r="AA13" s="1">
-        <v>7.369230</v>
+        <v>7.3692299999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1347.850000</v>
+        <v>1347.85</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.152000</v>
+        <v>-169.15199999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>26539.726295</v>
       </c>
       <c r="AF13" s="1">
-        <v>7.372146</v>
+        <v>7.3721459999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1360.530000</v>
+        <v>1360.53</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.688000</v>
+        <v>-178.68799999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>26550.210729</v>
+        <v>26550.210728999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>7.375059</v>
+        <v>7.3750590000000003</v>
       </c>
       <c r="AL13" s="1">
-        <v>1380.990000</v>
+        <v>1380.99</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.420000</v>
+        <v>-208.42</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>26560.990779</v>
       </c>
       <c r="AP13" s="1">
-        <v>7.378053</v>
+        <v>7.3780530000000004</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1402.540000</v>
+        <v>1402.54</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.205000</v>
+        <v>-252.20500000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>26572.049084</v>
+        <v>26572.049083999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>7.381125</v>
+        <v>7.3811249999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1426.990000</v>
+        <v>1426.99</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.148000</v>
+        <v>-312.14800000000002</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>26583.078622</v>
+        <v>26583.078622000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>7.384189</v>
+        <v>7.3841890000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1446.280000</v>
+        <v>1446.28</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.240000</v>
+        <v>-364.24</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>26594.037248</v>
+        <v>26594.037248000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>7.387233</v>
+        <v>7.3872330000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1531.360000</v>
+        <v>1531.36</v>
       </c>
       <c r="BG13" s="1">
-        <v>-612.670000</v>
+        <v>-612.66999999999996</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>26605.208789</v>
       </c>
       <c r="BJ13" s="1">
-        <v>7.390336</v>
+        <v>7.3903359999999996</v>
       </c>
       <c r="BK13" s="1">
-        <v>1685.720000</v>
+        <v>1685.72</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1057.980000</v>
+        <v>-1057.98</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>26617.117237</v>
+        <v>26617.117236999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>7.393644</v>
+        <v>7.3936440000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1980.270000</v>
+        <v>1980.27</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1829.130000</v>
+        <v>-1829.13</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>26628.795543</v>
       </c>
       <c r="BT13" s="1">
-        <v>7.396888</v>
+        <v>7.3968879999999997</v>
       </c>
       <c r="BU13" s="1">
-        <v>2365.960000</v>
+        <v>2365.96</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2716.950000</v>
+        <v>-2716.95</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>26639.776476</v>
+        <v>26639.776475999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>7.399938</v>
+        <v>7.3999379999999997</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2850.410000</v>
+        <v>2850.41</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3690.870000</v>
+        <v>-3690.87</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>26651.711207</v>
       </c>
       <c r="CD13" s="1">
-        <v>7.403253</v>
+        <v>7.4032530000000003</v>
       </c>
       <c r="CE13" s="1">
-        <v>4263.740000</v>
+        <v>4263.74</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6023.310000</v>
+        <v>-6023.31</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>26477.538424</v>
+        <v>26477.538423999998</v>
       </c>
       <c r="B14" s="1">
-        <v>7.354872</v>
+        <v>7.3548720000000003</v>
       </c>
       <c r="C14" s="1">
-        <v>1244.680000</v>
+        <v>1244.68</v>
       </c>
       <c r="D14" s="1">
-        <v>-310.732000</v>
+        <v>-310.73200000000003</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>26487.695506</v>
       </c>
       <c r="G14" s="1">
-        <v>7.357693</v>
+        <v>7.3576930000000003</v>
       </c>
       <c r="H14" s="1">
-        <v>1270.180000</v>
+        <v>1270.18</v>
       </c>
       <c r="I14" s="1">
-        <v>-267.431000</v>
+        <v>-267.43099999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>26498.047470</v>
+        <v>26498.047470000001</v>
       </c>
       <c r="L14" s="1">
-        <v>7.360569</v>
+        <v>7.3605689999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1305.680000</v>
+        <v>1305.68</v>
       </c>
       <c r="N14" s="1">
-        <v>-204.106000</v>
+        <v>-204.10599999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>26508.601873</v>
       </c>
       <c r="Q14" s="1">
-        <v>7.363501</v>
+        <v>7.3635010000000003</v>
       </c>
       <c r="R14" s="1">
-        <v>1317.610000</v>
+        <v>1317.61</v>
       </c>
       <c r="S14" s="1">
-        <v>-185.633000</v>
+        <v>-185.63300000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>26519.086284</v>
+        <v>26519.086284000001</v>
       </c>
       <c r="V14" s="1">
-        <v>7.366413</v>
+        <v>7.3664129999999997</v>
       </c>
       <c r="W14" s="1">
-        <v>1330.470000</v>
+        <v>1330.47</v>
       </c>
       <c r="X14" s="1">
-        <v>-172.050000</v>
+        <v>-172.05</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>26529.577189</v>
       </c>
       <c r="AA14" s="1">
-        <v>7.369327</v>
+        <v>7.3693270000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1347.620000</v>
+        <v>1347.62</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.320000</v>
+        <v>-169.32</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>26540.069030</v>
+        <v>26540.069029999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.372241</v>
+        <v>7.3722409999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>1360.490000</v>
+        <v>1360.49</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.683000</v>
+        <v>-178.68299999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>26550.556442</v>
+        <v>26550.556442000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>7.375155</v>
+        <v>7.3751550000000003</v>
       </c>
       <c r="AL14" s="1">
-        <v>1381.010000</v>
+        <v>1381.01</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.422000</v>
+        <v>-208.422</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>26561.352859</v>
+        <v>26561.352858999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>7.378154</v>
+        <v>7.3781540000000003</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1402.550000</v>
+        <v>1402.55</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.202000</v>
+        <v>-252.202</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>26572.414636</v>
+        <v>26572.414636000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>7.381226</v>
+        <v>7.3812259999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>1427.000000</v>
+        <v>1427</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.119000</v>
+        <v>-312.11900000000003</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>26583.438252</v>
       </c>
       <c r="AZ14" s="1">
-        <v>7.384288</v>
+        <v>7.3842879999999997</v>
       </c>
       <c r="BA14" s="1">
-        <v>1446.260000</v>
+        <v>1446.26</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.255000</v>
+        <v>-364.255</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>26594.397113</v>
+        <v>26594.397112999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>7.387333</v>
+        <v>7.3873329999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1531.390000</v>
+        <v>1531.39</v>
       </c>
       <c r="BG14" s="1">
-        <v>-612.644000</v>
+        <v>-612.64400000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>26605.955300</v>
+        <v>26605.955300000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>7.390543</v>
+        <v>7.3905430000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1685.740000</v>
+        <v>1685.74</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1058.030000</v>
+        <v>-1058.03</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>26617.547803</v>
+        <v>26617.547803000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>7.393763</v>
+        <v>7.3937629999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1980.130000</v>
+        <v>1980.13</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1829.230000</v>
+        <v>-1829.23</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>26629.209237</v>
+        <v>26629.209236999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>7.397003</v>
+        <v>7.3970029999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>2366.170000</v>
+        <v>2366.17</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2716.940000</v>
+        <v>-2716.94</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>26640.223400</v>
+        <v>26640.223399999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>7.400062</v>
+        <v>7.4000620000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2851.580000</v>
+        <v>2851.58</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3691.310000</v>
+        <v>-3691.31</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>26652.225063</v>
+        <v>26652.225063000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>7.403396</v>
+        <v>7.4033959999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4274.350000</v>
+        <v>4274.3500000000004</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6045.020000</v>
+        <v>-6045.02</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>26477.819160</v>
+        <v>26477.819159999999</v>
       </c>
       <c r="B15" s="1">
-        <v>7.354950</v>
+        <v>7.3549499999999997</v>
       </c>
       <c r="C15" s="1">
-        <v>1244.680000</v>
+        <v>1244.68</v>
       </c>
       <c r="D15" s="1">
-        <v>-310.402000</v>
+        <v>-310.40199999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>26487.918667</v>
+        <v>26487.918667000002</v>
       </c>
       <c r="G15" s="1">
         <v>7.357755</v>
       </c>
       <c r="H15" s="1">
-        <v>1269.610000</v>
+        <v>1269.6099999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-267.614000</v>
+        <v>-267.61399999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>26498.392685</v>
+        <v>26498.392684999999</v>
       </c>
       <c r="L15" s="1">
         <v>7.360665</v>
       </c>
       <c r="M15" s="1">
-        <v>1305.660000</v>
+        <v>1305.6600000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-204.119000</v>
+        <v>-204.119</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>26508.951024</v>
+        <v>26508.951024000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>7.363598</v>
+        <v>7.3635979999999996</v>
       </c>
       <c r="R15" s="1">
-        <v>1317.550000</v>
+        <v>1317.55</v>
       </c>
       <c r="S15" s="1">
-        <v>-185.636000</v>
+        <v>-185.636</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>26519.430530</v>
+        <v>26519.430530000001</v>
       </c>
       <c r="V15" s="1">
-        <v>7.366508</v>
+        <v>7.3665079999999996</v>
       </c>
       <c r="W15" s="1">
-        <v>1330.520000</v>
+        <v>1330.52</v>
       </c>
       <c r="X15" s="1">
-        <v>-172.013000</v>
+        <v>-172.01300000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>26529.924852</v>
       </c>
       <c r="AA15" s="1">
-        <v>7.369424</v>
+        <v>7.3694240000000004</v>
       </c>
       <c r="AB15" s="1">
-        <v>1347.800000</v>
+        <v>1347.8</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.117000</v>
+        <v>-169.11699999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>26540.414742</v>
+        <v>26540.414742000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>7.372337</v>
+        <v>7.3723369999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1360.540000</v>
+        <v>1360.54</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.709000</v>
+        <v>-178.709</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>26550.907609</v>
+        <v>26550.907609000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>7.375252</v>
+        <v>7.3752519999999997</v>
       </c>
       <c r="AL15" s="1">
-        <v>1380.970000</v>
+        <v>1380.97</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.428000</v>
+        <v>-208.428</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>26561.711501</v>
+        <v>26561.711501000002</v>
       </c>
       <c r="AP15" s="1">
         <v>7.378253</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1402.530000</v>
+        <v>1402.53</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.229000</v>
+        <v>-252.22900000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>26572.779195</v>
+        <v>26572.779194999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>7.381328</v>
+        <v>7.3813279999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1426.990000</v>
+        <v>1426.99</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.116000</v>
+        <v>-312.11599999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>26583.795836</v>
+        <v>26583.795836000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>7.384388</v>
+        <v>7.3843880000000004</v>
       </c>
       <c r="BA15" s="1">
-        <v>1446.290000</v>
+        <v>1446.29</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.234000</v>
+        <v>-364.23399999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>26595.116752</v>
+        <v>26595.116752000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>7.387532</v>
+        <v>7.3875320000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1531.350000</v>
+        <v>1531.35</v>
       </c>
       <c r="BG15" s="1">
-        <v>-612.628000</v>
+        <v>-612.62800000000004</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>26606.356564</v>
+        <v>26606.356564000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>7.390655</v>
+        <v>7.3906549999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1685.740000</v>
+        <v>1685.74</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1057.960000</v>
+        <v>-1057.96</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>26617.934148</v>
       </c>
       <c r="BO15" s="1">
-        <v>7.393871</v>
+        <v>7.3938709999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1980.240000</v>
+        <v>1980.24</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1829.150000</v>
+        <v>-1829.15</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>26629.627110</v>
+        <v>26629.627110000001</v>
       </c>
       <c r="BT15" s="1">
         <v>7.397119</v>
       </c>
       <c r="BU15" s="1">
-        <v>2366.290000</v>
+        <v>2366.29</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2716.710000</v>
+        <v>-2716.71</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>26640.966373</v>
+        <v>26640.966372999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>7.400268</v>
+        <v>7.4002679999999996</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2851.240000</v>
+        <v>2851.24</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3690.760000</v>
+        <v>-3690.76</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>26652.828695</v>
       </c>
       <c r="CD15" s="1">
-        <v>7.403564</v>
+        <v>7.4035640000000003</v>
       </c>
       <c r="CE15" s="1">
-        <v>4259.160000</v>
+        <v>4259.16</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6030.840000</v>
+        <v>-6030.84</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>26478.159384</v>
+        <v>26478.159383999999</v>
       </c>
       <c r="B16" s="1">
-        <v>7.355044</v>
+        <v>7.3550440000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>1244.760000</v>
+        <v>1244.76</v>
       </c>
       <c r="D16" s="1">
-        <v>-310.532000</v>
+        <v>-310.53199999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>26488.263388</v>
+        <v>26488.263387999999</v>
       </c>
       <c r="G16" s="1">
-        <v>7.357851</v>
+        <v>7.3578510000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1270.490000</v>
+        <v>1270.49</v>
       </c>
       <c r="I16" s="1">
-        <v>-267.999000</v>
+        <v>-267.99900000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>26498.739885</v>
+        <v>26498.739884999999</v>
       </c>
       <c r="L16" s="1">
-        <v>7.360761</v>
+        <v>7.3607610000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1305.470000</v>
+        <v>1305.47</v>
       </c>
       <c r="N16" s="1">
-        <v>-204.046000</v>
+        <v>-204.04599999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>26509.300207</v>
       </c>
       <c r="Q16" s="1">
-        <v>7.363695</v>
+        <v>7.3636949999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1317.560000</v>
+        <v>1317.56</v>
       </c>
       <c r="S16" s="1">
-        <v>-185.577000</v>
+        <v>-185.577</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>26520.118450</v>
+        <v>26520.118450000002</v>
       </c>
       <c r="V16" s="1">
-        <v>7.366700</v>
+        <v>7.3666999999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>1330.390000</v>
+        <v>1330.39</v>
       </c>
       <c r="X16" s="1">
-        <v>-172.005000</v>
+        <v>-172.005</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>26530.623252</v>
+        <v>26530.623252000001</v>
       </c>
       <c r="AA16" s="1">
         <v>7.369618</v>
       </c>
       <c r="AB16" s="1">
-        <v>1347.880000</v>
+        <v>1347.88</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.282000</v>
+        <v>-169.28200000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>26541.102199</v>
+        <v>26541.102199000001</v>
       </c>
       <c r="AF16" s="1">
         <v>7.372528</v>
       </c>
       <c r="AG16" s="1">
-        <v>1360.450000</v>
+        <v>1360.45</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.726000</v>
+        <v>-178.726</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>26551.600763</v>
+        <v>26551.600762999999</v>
       </c>
       <c r="AK16" s="1">
         <v>7.375445</v>
       </c>
       <c r="AL16" s="1">
-        <v>1380.970000</v>
+        <v>1380.97</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.437000</v>
+        <v>-208.43700000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>26562.431161</v>
       </c>
       <c r="AP16" s="1">
-        <v>7.378453</v>
+        <v>7.3784530000000004</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1402.510000</v>
+        <v>1402.51</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.192000</v>
+        <v>-252.19200000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>26573.506858</v>
+        <v>26573.506858000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>7.381530</v>
+        <v>7.3815299999999997</v>
       </c>
       <c r="AV16" s="1">
-        <v>1427.010000</v>
+        <v>1427.01</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.126000</v>
+        <v>-312.12599999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>26584.512589</v>
+        <v>26584.512589000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>7.384587</v>
+        <v>7.3845869999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1446.250000</v>
+        <v>1446.25</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.246000</v>
+        <v>-364.24599999999998</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>26595.475329</v>
+        <v>26595.475329000001</v>
       </c>
       <c r="BE16" s="1">
         <v>7.387632</v>
       </c>
       <c r="BF16" s="1">
-        <v>1531.380000</v>
+        <v>1531.38</v>
       </c>
       <c r="BG16" s="1">
-        <v>-612.644000</v>
+        <v>-612.64400000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>26606.735475</v>
+        <v>26606.735475000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>7.390760</v>
+        <v>7.3907600000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1685.750000</v>
+        <v>1685.75</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1057.900000</v>
+        <v>-1057.9000000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>26618.352310</v>
+        <v>26618.352309999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>7.393987</v>
+        <v>7.3939870000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1980.180000</v>
+        <v>1980.18</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1829.080000</v>
+        <v>-1829.08</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>26630.350531</v>
       </c>
       <c r="BT16" s="1">
-        <v>7.397320</v>
+        <v>7.3973199999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>2366.600000</v>
+        <v>2366.6</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2716.980000</v>
+        <v>-2716.98</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>26641.086901</v>
+        <v>26641.086900999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>7.400302</v>
+        <v>7.4003019999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2850.750000</v>
+        <v>2850.75</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3690.560000</v>
+        <v>-3690.56</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>26653.309848</v>
+        <v>26653.309848000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>7.403697</v>
+        <v>7.4036970000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>4261.590000</v>
+        <v>4261.59</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6030.220000</v>
+        <v>-6030.22</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>26478.501624</v>
       </c>
       <c r="B17" s="1">
-        <v>7.355139</v>
+        <v>7.3551390000000003</v>
       </c>
       <c r="C17" s="1">
-        <v>1245.140000</v>
+        <v>1245.1400000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-310.485000</v>
+        <v>-310.48500000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>26488.950347</v>
+        <v>26488.950347000002</v>
       </c>
       <c r="G17" s="1">
-        <v>7.358042</v>
+        <v>7.3580420000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>1270.280000</v>
+        <v>1270.28</v>
       </c>
       <c r="I17" s="1">
-        <v>-268.114000</v>
+        <v>-268.11399999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>26499.434780</v>
+        <v>26499.43478</v>
       </c>
       <c r="L17" s="1">
-        <v>7.360954</v>
+        <v>7.3609540000000004</v>
       </c>
       <c r="M17" s="1">
-        <v>1305.630000</v>
+        <v>1305.6300000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-204.216000</v>
+        <v>-204.21600000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>26509.991630</v>
+        <v>26509.99163</v>
       </c>
       <c r="Q17" s="1">
-        <v>7.363887</v>
+        <v>7.3638870000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1317.570000</v>
+        <v>1317.57</v>
       </c>
       <c r="S17" s="1">
-        <v>-185.583000</v>
+        <v>-185.583</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>26520.461713</v>
+        <v>26520.461713000001</v>
       </c>
       <c r="V17" s="1">
-        <v>7.366795</v>
+        <v>7.3667949999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1330.420000</v>
+        <v>1330.42</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.953000</v>
+        <v>-171.953</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>26530.970451</v>
+        <v>26530.970451000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>7.369714</v>
+        <v>7.3697140000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1347.750000</v>
+        <v>1347.75</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.040000</v>
+        <v>-169.04</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>26541.443477</v>
+        <v>26541.443477000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>7.372623</v>
+        <v>7.3726229999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1360.450000</v>
+        <v>1360.45</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.671000</v>
+        <v>-178.67099999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>26551.951686</v>
       </c>
       <c r="AK17" s="1">
-        <v>7.375542</v>
+        <v>7.3755420000000003</v>
       </c>
       <c r="AL17" s="1">
-        <v>1381.000000</v>
+        <v>1381</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.429000</v>
+        <v>-208.429</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>26562.820551</v>
+        <v>26562.820551000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>7.378561</v>
+        <v>7.3785610000000004</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1402.570000</v>
+        <v>1402.57</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.196000</v>
+        <v>-252.196</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>26573.898945</v>
+        <v>26573.898945000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>7.381639</v>
+        <v>7.3816389999999998</v>
       </c>
       <c r="AV17" s="1">
-        <v>1426.960000</v>
+        <v>1426.96</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.142000</v>
+        <v>-312.142</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>26584.868683</v>
+        <v>26584.868683000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>7.384686</v>
+        <v>7.3846860000000003</v>
       </c>
       <c r="BA17" s="1">
-        <v>1446.280000</v>
+        <v>1446.28</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.202000</v>
+        <v>-364.202</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>26595.837873</v>
       </c>
       <c r="BE17" s="1">
-        <v>7.387733</v>
+        <v>7.3877329999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1531.410000</v>
+        <v>1531.41</v>
       </c>
       <c r="BG17" s="1">
-        <v>-612.673000</v>
+        <v>-612.673</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>26607.428997</v>
+        <v>26607.428996999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>7.390952</v>
+        <v>7.3909520000000004</v>
       </c>
       <c r="BK17" s="1">
-        <v>1685.820000</v>
+        <v>1685.82</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1057.940000</v>
+        <v>-1057.94</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>26619.080898</v>
       </c>
       <c r="BO17" s="1">
-        <v>7.394189</v>
+        <v>7.3941889999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1980.110000</v>
+        <v>1980.11</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1829.000000</v>
+        <v>-1829</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>26630.474005</v>
@@ -4546,649 +4962,649 @@
         <v>7.397354</v>
       </c>
       <c r="BU17" s="1">
-        <v>2366.470000</v>
+        <v>2366.4699999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2716.460000</v>
+        <v>-2716.46</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>26641.515449</v>
+        <v>26641.515448999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>7.400421</v>
+        <v>7.4004209999999997</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2851.350000</v>
+        <v>2851.35</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3690.600000</v>
+        <v>-3690.6</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>26653.831636</v>
+        <v>26653.831635999999</v>
       </c>
       <c r="CD17" s="1">
         <v>7.403842</v>
       </c>
       <c r="CE17" s="1">
-        <v>4267.810000</v>
+        <v>4267.8100000000004</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6044.470000</v>
+        <v>-6044.47</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>26479.184119</v>
+        <v>26479.184119000001</v>
       </c>
       <c r="B18" s="1">
-        <v>7.355329</v>
+        <v>7.3553290000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>1244.760000</v>
+        <v>1244.76</v>
       </c>
       <c r="D18" s="1">
-        <v>-310.633000</v>
+        <v>-310.63299999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>26489.296094</v>
+        <v>26489.296094000001</v>
       </c>
       <c r="G18" s="1">
-        <v>7.358138</v>
+        <v>7.3581380000000003</v>
       </c>
       <c r="H18" s="1">
-        <v>1270.370000</v>
+        <v>1270.3699999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-267.594000</v>
+        <v>-267.59399999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>26499.779003</v>
       </c>
       <c r="L18" s="1">
-        <v>7.361050</v>
+        <v>7.3610499999999996</v>
       </c>
       <c r="M18" s="1">
-        <v>1305.810000</v>
+        <v>1305.81</v>
       </c>
       <c r="N18" s="1">
-        <v>-204.235000</v>
+        <v>-204.23500000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>26510.344783</v>
       </c>
       <c r="Q18" s="1">
-        <v>7.363985</v>
+        <v>7.3639849999999996</v>
       </c>
       <c r="R18" s="1">
-        <v>1317.630000</v>
+        <v>1317.63</v>
       </c>
       <c r="S18" s="1">
-        <v>-185.612000</v>
+        <v>-185.61199999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>26520.808383</v>
       </c>
       <c r="V18" s="1">
-        <v>7.366891</v>
+        <v>7.3668909999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1330.620000</v>
+        <v>1330.62</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.952000</v>
+        <v>-171.952</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>26531.321090</v>
+        <v>26531.321090000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>7.369811</v>
+        <v>7.3698110000000003</v>
       </c>
       <c r="AB18" s="1">
-        <v>1347.640000</v>
+        <v>1347.64</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.126000</v>
+        <v>-169.126</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>26541.788660</v>
+        <v>26541.788659999998</v>
       </c>
       <c r="AF18" s="1">
         <v>7.372719</v>
       </c>
       <c r="AG18" s="1">
-        <v>1360.500000</v>
+        <v>1360.5</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.651000</v>
+        <v>-178.65100000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>26552.300671</v>
+        <v>26552.300671000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>7.375639</v>
+        <v>7.3756389999999996</v>
       </c>
       <c r="AL18" s="1">
-        <v>1381.000000</v>
+        <v>1381</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.437000</v>
+        <v>-208.43700000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>26563.179127</v>
+        <v>26563.179126999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>7.378661</v>
+        <v>7.3786610000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1402.530000</v>
+        <v>1402.53</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.189000</v>
+        <v>-252.18899999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>26574.265363</v>
+        <v>26574.265362999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>7.381740</v>
+        <v>7.3817399999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>1427.020000</v>
+        <v>1427.02</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.133000</v>
+        <v>-312.13299999999998</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>26585.230281</v>
       </c>
       <c r="AZ18" s="1">
-        <v>7.384786</v>
+        <v>7.3847860000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1446.260000</v>
+        <v>1446.26</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.225000</v>
+        <v>-364.22500000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>26596.522354</v>
+        <v>26596.522354000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>7.387923</v>
+        <v>7.3879229999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1531.380000</v>
+        <v>1531.38</v>
       </c>
       <c r="BG18" s="1">
-        <v>-612.624000</v>
+        <v>-612.62400000000002</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>26607.891681</v>
+        <v>26607.891681000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.391081</v>
+        <v>7.3910809999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1685.760000</v>
+        <v>1685.76</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1057.900000</v>
+        <v>-1057.9000000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>26619.597764</v>
+        <v>26619.597763999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>7.394333</v>
+        <v>7.3943329999999996</v>
       </c>
       <c r="BP18" s="1">
-        <v>1980.350000</v>
+        <v>1980.35</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1828.970000</v>
+        <v>-1828.97</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>26630.883235</v>
+        <v>26630.883235000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>7.397468</v>
+        <v>7.3974679999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2366.610000</v>
+        <v>2366.61</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2716.650000</v>
+        <v>-2716.65</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>26641.933076</v>
+        <v>26641.933076000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>7.400537</v>
+        <v>7.4005369999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2851.200000</v>
+        <v>2851.2</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3690.640000</v>
+        <v>-3690.64</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>26654.347445</v>
+        <v>26654.347444999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>7.403985</v>
+        <v>7.4039849999999996</v>
       </c>
       <c r="CE18" s="1">
-        <v>4283.270000</v>
+        <v>4283.2700000000004</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6035.800000</v>
+        <v>-6035.8</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>26479.527847</v>
+        <v>26479.527847000001</v>
       </c>
       <c r="B19" s="1">
-        <v>7.355424</v>
+        <v>7.3554240000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1244.250000</v>
+        <v>1244.25</v>
       </c>
       <c r="D19" s="1">
-        <v>-310.829000</v>
+        <v>-310.82900000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>26489.639785</v>
+        <v>26489.639784999999</v>
       </c>
       <c r="G19" s="1">
-        <v>7.358233</v>
+        <v>7.3582330000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>1269.470000</v>
+        <v>1269.47</v>
       </c>
       <c r="I19" s="1">
-        <v>-267.588000</v>
+        <v>-267.58800000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>26500.123755</v>
+        <v>26500.123755000001</v>
       </c>
       <c r="L19" s="1">
-        <v>7.361145</v>
+        <v>7.3611449999999996</v>
       </c>
       <c r="M19" s="1">
-        <v>1306.200000</v>
+        <v>1306.2</v>
       </c>
       <c r="N19" s="1">
-        <v>-204.243000</v>
+        <v>-204.24299999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>26510.693965</v>
+        <v>26510.693964999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>7.364082</v>
+        <v>7.3640819999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>1317.660000</v>
+        <v>1317.66</v>
       </c>
       <c r="S19" s="1">
-        <v>-185.659000</v>
+        <v>-185.65899999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>26521.453556</v>
       </c>
       <c r="V19" s="1">
-        <v>7.367070</v>
+        <v>7.36707</v>
       </c>
       <c r="W19" s="1">
-        <v>1330.510000</v>
+        <v>1330.51</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.988000</v>
+        <v>-171.988</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>26531.974818</v>
+        <v>26531.974817999999</v>
       </c>
       <c r="AA19" s="1">
         <v>7.369993</v>
       </c>
       <c r="AB19" s="1">
-        <v>1347.780000</v>
+        <v>1347.78</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.199000</v>
+        <v>-169.19900000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>26542.434469</v>
       </c>
       <c r="AF19" s="1">
-        <v>7.372898</v>
+        <v>7.3728980000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>1360.520000</v>
+        <v>1360.52</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.599000</v>
+        <v>-178.59899999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>26552.943189</v>
+        <v>26552.943189000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>7.375818</v>
+        <v>7.3758179999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>1380.990000</v>
+        <v>1380.99</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.444000</v>
+        <v>-208.44399999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>26563.846775</v>
+        <v>26563.846775000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>7.378846</v>
+        <v>7.3788460000000002</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1402.560000</v>
+        <v>1402.56</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.185000</v>
+        <v>-252.185</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>26574.936824</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.381927</v>
+        <v>7.3819270000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1426.980000</v>
+        <v>1426.98</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.139000</v>
+        <v>-312.13900000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>26585.883993</v>
+        <v>26585.883992999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7.384968</v>
+        <v>7.3849679999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1446.270000</v>
+        <v>1446.27</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.218000</v>
+        <v>-364.21800000000002</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>26596.950896</v>
+        <v>26596.950895999998</v>
       </c>
       <c r="BE19" s="1">
-        <v>7.388042</v>
+        <v>7.3880420000000004</v>
       </c>
       <c r="BF19" s="1">
-        <v>1531.380000</v>
+        <v>1531.38</v>
       </c>
       <c r="BG19" s="1">
-        <v>-612.700000</v>
+        <v>-612.70000000000005</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>26608.282994</v>
+        <v>26608.282994000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.391190</v>
+        <v>7.3911899999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1685.750000</v>
+        <v>1685.75</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1057.970000</v>
+        <v>-1057.97</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>26620.013385</v>
+        <v>26620.013384999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>7.394448</v>
+        <v>7.3944479999999997</v>
       </c>
       <c r="BP19" s="1">
-        <v>1980.110000</v>
+        <v>1980.11</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1828.960000</v>
+        <v>-1828.96</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>26631.311279</v>
+        <v>26631.311279000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>7.397586</v>
+        <v>7.3975860000000004</v>
       </c>
       <c r="BU19" s="1">
-        <v>2367.100000</v>
+        <v>2367.1</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2716.830000</v>
+        <v>-2716.83</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>26642.379973</v>
+        <v>26642.379972999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>7.400661</v>
+        <v>7.4006610000000004</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2850.770000</v>
+        <v>2850.77</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3690.110000</v>
+        <v>-3690.11</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>26654.865301</v>
+        <v>26654.865301000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>7.404129</v>
+        <v>7.4041290000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>4272.250000</v>
+        <v>4272.25</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6021.760000</v>
+        <v>-6021.76</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>26479.872566</v>
+        <v>26479.872565999998</v>
       </c>
       <c r="B20" s="1">
-        <v>7.355520</v>
+        <v>7.3555200000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>1244.260000</v>
+        <v>1244.26</v>
       </c>
       <c r="D20" s="1">
-        <v>-310.523000</v>
+        <v>-310.52300000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>26490.289544</v>
+        <v>26490.289543999999</v>
       </c>
       <c r="G20" s="1">
-        <v>7.358414</v>
+        <v>7.3584139999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>1270.690000</v>
+        <v>1270.69</v>
       </c>
       <c r="I20" s="1">
-        <v>-267.643000</v>
+        <v>-267.64299999999997</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>26500.778442</v>
+        <v>26500.778441999999</v>
       </c>
       <c r="L20" s="1">
-        <v>7.361327</v>
+        <v>7.3613270000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>1305.480000</v>
+        <v>1305.48</v>
       </c>
       <c r="N20" s="1">
-        <v>-204.282000</v>
+        <v>-204.28200000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>26511.341244</v>
+        <v>26511.341243999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>7.364261</v>
+        <v>7.3642609999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1317.510000</v>
+        <v>1317.51</v>
       </c>
       <c r="S20" s="1">
-        <v>-185.641000</v>
+        <v>-185.64099999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>26521.838606</v>
+        <v>26521.838606000001</v>
       </c>
       <c r="V20" s="1">
-        <v>7.367177</v>
+        <v>7.3671769999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1330.520000</v>
+        <v>1330.52</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.960000</v>
+        <v>-171.96</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>26532.367154</v>
       </c>
       <c r="AA20" s="1">
-        <v>7.370102</v>
+        <v>7.3701020000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>1347.540000</v>
+        <v>1347.54</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.122000</v>
+        <v>-169.12200000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>26542.818851</v>
@@ -5197,43 +5613,43 @@
         <v>7.373005</v>
       </c>
       <c r="AG20" s="1">
-        <v>1360.460000</v>
+        <v>1360.46</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.634000</v>
+        <v>-178.63399999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>26553.347957</v>
+        <v>26553.347957000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>7.375930</v>
+        <v>7.3759300000000003</v>
       </c>
       <c r="AL20" s="1">
-        <v>1380.970000</v>
+        <v>1380.97</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.427000</v>
+        <v>-208.42699999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>26564.300619</v>
+        <v>26564.300619000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>7.378972</v>
+        <v>7.3789720000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1402.520000</v>
+        <v>1402.52</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.187000</v>
+        <v>-252.18700000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>26575.392152</v>
@@ -5242,724 +5658,724 @@
         <v>7.382053</v>
       </c>
       <c r="AV20" s="1">
-        <v>1426.990000</v>
+        <v>1426.99</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.096000</v>
+        <v>-312.096</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>26586.336842</v>
+        <v>26586.336842000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.385094</v>
+        <v>7.3850939999999996</v>
       </c>
       <c r="BA20" s="1">
-        <v>1446.280000</v>
+        <v>1446.28</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.201000</v>
+        <v>-364.20100000000002</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>26597.314960</v>
+        <v>26597.31496</v>
       </c>
       <c r="BE20" s="1">
-        <v>7.388143</v>
+        <v>7.3881430000000003</v>
       </c>
       <c r="BF20" s="1">
-        <v>1531.370000</v>
+        <v>1531.37</v>
       </c>
       <c r="BG20" s="1">
-        <v>-612.629000</v>
+        <v>-612.62900000000002</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>26608.656976</v>
+        <v>26608.656975999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.391294</v>
+        <v>7.3912940000000003</v>
       </c>
       <c r="BK20" s="1">
-        <v>1685.710000</v>
+        <v>1685.71</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1057.930000</v>
+        <v>-1057.93</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>26620.598197</v>
+        <v>26620.598196999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>7.394611</v>
+        <v>7.3946110000000003</v>
       </c>
       <c r="BP20" s="1">
-        <v>1980.020000</v>
+        <v>1980.02</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1828.980000</v>
+        <v>-1828.98</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>26631.733879</v>
+        <v>26631.733878999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>7.397704</v>
+        <v>7.3977040000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2367.060000</v>
+        <v>2367.06</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2716.260000</v>
+        <v>-2716.26</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>26642.801571</v>
       </c>
       <c r="BY20" s="1">
-        <v>7.400778</v>
+        <v>7.4007779999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2850.220000</v>
+        <v>2850.22</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3690.500000</v>
+        <v>-3690.5</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>26655.383123</v>
       </c>
       <c r="CD20" s="1">
-        <v>7.404273</v>
+        <v>7.4042729999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>4275.260000</v>
+        <v>4275.26</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6023.220000</v>
+        <v>-6023.22</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>26480.523813</v>
       </c>
       <c r="B21" s="1">
-        <v>7.355701</v>
+        <v>7.3557009999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>1244.570000</v>
+        <v>1244.57</v>
       </c>
       <c r="D21" s="1">
-        <v>-310.689000</v>
+        <v>-310.68900000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>26490.673944</v>
+        <v>26490.673943999998</v>
       </c>
       <c r="G21" s="1">
-        <v>7.358521</v>
+        <v>7.3585209999999996</v>
       </c>
       <c r="H21" s="1">
-        <v>1270.020000</v>
+        <v>1270.02</v>
       </c>
       <c r="I21" s="1">
-        <v>-268.455000</v>
+        <v>-268.45499999999998</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>26501.159865</v>
+        <v>26501.159865000001</v>
       </c>
       <c r="L21" s="1">
-        <v>7.361433</v>
+        <v>7.3614329999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1305.750000</v>
+        <v>1305.75</v>
       </c>
       <c r="N21" s="1">
-        <v>-204.283000</v>
+        <v>-204.28299999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>26511.737729</v>
       </c>
       <c r="Q21" s="1">
-        <v>7.364372</v>
+        <v>7.3643720000000004</v>
       </c>
       <c r="R21" s="1">
-        <v>1317.500000</v>
+        <v>1317.5</v>
       </c>
       <c r="S21" s="1">
-        <v>-185.560000</v>
+        <v>-185.56</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>26522.178335</v>
+        <v>26522.178335000001</v>
       </c>
       <c r="V21" s="1">
-        <v>7.367272</v>
+        <v>7.3672719999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>1330.390000</v>
+        <v>1330.39</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.947000</v>
+        <v>-171.947</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>26532.713361</v>
+        <v>26532.713360999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>7.370198</v>
+        <v>7.3701980000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>1347.960000</v>
+        <v>1347.96</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.984000</v>
+        <v>-168.98400000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>26543.161090</v>
+        <v>26543.161090000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>7.373100</v>
+        <v>7.3731</v>
       </c>
       <c r="AG21" s="1">
-        <v>1360.510000</v>
+        <v>1360.51</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.641000</v>
+        <v>-178.64099999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>26553.694160</v>
+        <v>26553.694159999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>7.376026</v>
+        <v>7.3760260000000004</v>
       </c>
       <c r="AL21" s="1">
-        <v>1380.990000</v>
+        <v>1380.99</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.403000</v>
+        <v>-208.40299999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>26564.658726</v>
+        <v>26564.658726000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>7.379072</v>
+        <v>7.3790719999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1402.530000</v>
+        <v>1402.53</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.191000</v>
+        <v>-252.191</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>26575.757213</v>
+        <v>26575.757213000001</v>
       </c>
       <c r="AU21" s="1">
         <v>7.382155</v>
       </c>
       <c r="AV21" s="1">
-        <v>1427.010000</v>
+        <v>1427.01</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.125000</v>
+        <v>-312.125</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>26586.694987</v>
+        <v>26586.694986999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>7.385193</v>
+        <v>7.3851930000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1446.280000</v>
+        <v>1446.28</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.235000</v>
+        <v>-364.23500000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>26597.675551</v>
       </c>
       <c r="BE21" s="1">
-        <v>7.388243</v>
+        <v>7.3882430000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1531.390000</v>
+        <v>1531.39</v>
       </c>
       <c r="BG21" s="1">
-        <v>-612.624000</v>
+        <v>-612.62400000000002</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>26609.080064</v>
+        <v>26609.080064000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>7.391411</v>
+        <v>7.3914109999999997</v>
       </c>
       <c r="BK21" s="1">
-        <v>1685.690000</v>
+        <v>1685.69</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1057.860000</v>
+        <v>-1057.8599999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>26620.830784</v>
+        <v>26620.830784000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>7.394675</v>
+        <v>7.3946750000000003</v>
       </c>
       <c r="BP21" s="1">
-        <v>1980.080000</v>
+        <v>1980.08</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1828.920000</v>
+        <v>-1828.92</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>26632.142049</v>
+        <v>26632.142048999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>7.397817</v>
+        <v>7.3978169999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2367.260000</v>
+        <v>2367.2600000000002</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2716.430000</v>
+        <v>-2716.43</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>26643.227139</v>
+        <v>26643.227138999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>7.400896</v>
+        <v>7.4008960000000004</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2850.720000</v>
+        <v>2850.72</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3691.070000</v>
+        <v>-3691.07</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>26655.938114</v>
       </c>
       <c r="CD21" s="1">
-        <v>7.404427</v>
+        <v>7.4044270000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4283.570000</v>
+        <v>4283.57</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6033.270000</v>
+        <v>-6033.27</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>26480.895318</v>
+        <v>26480.895317999999</v>
       </c>
       <c r="B22" s="1">
         <v>7.355804</v>
       </c>
       <c r="C22" s="1">
-        <v>1244.780000</v>
+        <v>1244.78</v>
       </c>
       <c r="D22" s="1">
-        <v>-310.756000</v>
+        <v>-310.75599999999997</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>26491.019655</v>
       </c>
       <c r="G22" s="1">
-        <v>7.358617</v>
+        <v>7.3586169999999997</v>
       </c>
       <c r="H22" s="1">
-        <v>1269.810000</v>
+        <v>1269.81</v>
       </c>
       <c r="I22" s="1">
-        <v>-267.194000</v>
+        <v>-267.19400000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>26501.509093</v>
+        <v>26501.509093000001</v>
       </c>
       <c r="L22" s="1">
-        <v>7.361530</v>
+        <v>7.3615300000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1305.970000</v>
+        <v>1305.97</v>
       </c>
       <c r="N22" s="1">
-        <v>-204.033000</v>
+        <v>-204.03299999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>26512.086731</v>
+        <v>26512.086730999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>7.364469</v>
+        <v>7.3644689999999997</v>
       </c>
       <c r="R22" s="1">
-        <v>1317.580000</v>
+        <v>1317.58</v>
       </c>
       <c r="S22" s="1">
-        <v>-185.519000</v>
+        <v>-185.51900000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>26522.523080</v>
+        <v>26522.523079999999</v>
       </c>
       <c r="V22" s="1">
-        <v>7.367368</v>
+        <v>7.3673679999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1330.440000</v>
+        <v>1330.44</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.934000</v>
+        <v>-171.934</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>26533.062079</v>
+        <v>26533.062078999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>7.370295</v>
+        <v>7.3702949999999996</v>
       </c>
       <c r="AB22" s="1">
-        <v>1347.700000</v>
+        <v>1347.7</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.948000</v>
+        <v>-168.94800000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>26543.504322</v>
+        <v>26543.504322000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>7.373196</v>
+        <v>7.3731960000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1360.450000</v>
+        <v>1360.45</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.707000</v>
+        <v>-178.70699999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>26554.043316</v>
+        <v>26554.043315999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>7.376123</v>
+        <v>7.3761229999999998</v>
       </c>
       <c r="AL22" s="1">
-        <v>1381.020000</v>
+        <v>1381.02</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.425000</v>
+        <v>-208.42500000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>26565.018293</v>
+        <v>26565.018293000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>7.379172</v>
+        <v>7.3791719999999996</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1402.520000</v>
+        <v>1402.52</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.233000</v>
+        <v>-252.233</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>26576.124215</v>
       </c>
       <c r="AU22" s="1">
-        <v>7.382257</v>
+        <v>7.3822570000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1426.980000</v>
+        <v>1426.98</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.122000</v>
+        <v>-312.12200000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>26587.054552</v>
+        <v>26587.054552000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>7.385293</v>
+        <v>7.3852929999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1446.280000</v>
+        <v>1446.28</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.210000</v>
+        <v>-364.21</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>26598.110542</v>
+        <v>26598.110541999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>7.388364</v>
+        <v>7.3883640000000002</v>
       </c>
       <c r="BF22" s="1">
-        <v>1531.360000</v>
+        <v>1531.36</v>
       </c>
       <c r="BG22" s="1">
-        <v>-612.665000</v>
+        <v>-612.66499999999996</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>26609.408943</v>
+        <v>26609.408942999999</v>
       </c>
       <c r="BJ22" s="1">
         <v>7.391502</v>
       </c>
       <c r="BK22" s="1">
-        <v>1685.710000</v>
+        <v>1685.71</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1057.900000</v>
+        <v>-1057.9000000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>26621.227088</v>
       </c>
       <c r="BO22" s="1">
-        <v>7.394785</v>
+        <v>7.3947849999999997</v>
       </c>
       <c r="BP22" s="1">
-        <v>1980.200000</v>
+        <v>1980.2</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1828.920000</v>
+        <v>-1828.92</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>26632.559185</v>
+        <v>26632.559184999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>7.397933</v>
+        <v>7.3979330000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2367.250000</v>
+        <v>2367.25</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2716.160000</v>
+        <v>-2716.16</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>26643.644274</v>
+        <v>26643.644273999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>7.401012</v>
+        <v>7.4010119999999997</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2850.840000</v>
+        <v>2850.84</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3690.360000</v>
+        <v>-3690.36</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>26656.464865</v>
+        <v>26656.464865000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>7.404574</v>
+        <v>7.4045740000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>4270.130000</v>
+        <v>4270.13</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6020.640000</v>
+        <v>-6020.64</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>26481.237593</v>
+        <v>26481.237593000002</v>
       </c>
       <c r="B23" s="1">
         <v>7.355899</v>
       </c>
       <c r="C23" s="1">
-        <v>1244.650000</v>
+        <v>1244.6500000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-310.511000</v>
+        <v>-310.51100000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>26491.363878</v>
       </c>
       <c r="G23" s="1">
-        <v>7.358712</v>
+        <v>7.3587119999999997</v>
       </c>
       <c r="H23" s="1">
-        <v>1270.970000</v>
+        <v>1270.97</v>
       </c>
       <c r="I23" s="1">
-        <v>-267.286000</v>
+        <v>-267.286</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>26501.852281</v>
+        <v>26501.852280999999</v>
       </c>
       <c r="L23" s="1">
-        <v>7.361626</v>
+        <v>7.3616260000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>1305.750000</v>
+        <v>1305.75</v>
       </c>
       <c r="N23" s="1">
-        <v>-204.357000</v>
+        <v>-204.357</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>26512.437903</v>
+        <v>26512.437902999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>7.364566</v>
+        <v>7.3645659999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1317.590000</v>
+        <v>1317.59</v>
       </c>
       <c r="S23" s="1">
-        <v>-185.600000</v>
+        <v>-185.6</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>26522.940685</v>
+        <v>26522.940685000001</v>
       </c>
       <c r="V23" s="1">
-        <v>7.367484</v>
+        <v>7.3674840000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1330.380000</v>
+        <v>1330.38</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.965000</v>
+        <v>-171.965</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>26533.487647</v>
+        <v>26533.487647000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>7.370413</v>
+        <v>7.3704130000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1347.710000</v>
+        <v>1347.71</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.100000</v>
+        <v>-169.1</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>26543.936833</v>
@@ -5968,936 +6384,937 @@
         <v>7.373316</v>
       </c>
       <c r="AG23" s="1">
-        <v>1360.530000</v>
+        <v>1360.53</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.640000</v>
+        <v>-178.64</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>26554.452559</v>
+        <v>26554.452559000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>7.376237</v>
+        <v>7.3762369999999997</v>
       </c>
       <c r="AL23" s="1">
-        <v>1380.980000</v>
+        <v>1380.98</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.445000</v>
+        <v>-208.44499999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>26565.434934</v>
+        <v>26565.434934000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>7.379287</v>
+        <v>7.3792869999999997</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1402.540000</v>
+        <v>1402.54</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.190000</v>
+        <v>-252.19</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>26576.547303</v>
+        <v>26576.547302999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>7.382374</v>
+        <v>7.3823740000000004</v>
       </c>
       <c r="AV23" s="1">
-        <v>1426.980000</v>
+        <v>1426.98</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.124000</v>
+        <v>-312.12400000000002</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>26587.512361</v>
+        <v>26587.512361000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>7.385420</v>
+        <v>7.3854199999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1446.270000</v>
+        <v>1446.27</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.244000</v>
+        <v>-364.24400000000003</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>26598.396734</v>
+        <v>26598.396734000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>7.388444</v>
+        <v>7.3884439999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1531.340000</v>
+        <v>1531.34</v>
       </c>
       <c r="BG23" s="1">
-        <v>-612.629000</v>
+        <v>-612.62900000000002</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>26609.789839</v>
+        <v>26609.789839000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>7.391608</v>
+        <v>7.3916079999999997</v>
       </c>
       <c r="BK23" s="1">
-        <v>1685.750000</v>
+        <v>1685.75</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1057.880000</v>
+        <v>-1057.8800000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>26621.652657</v>
+        <v>26621.652656999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>7.394904</v>
+        <v>7.3949040000000004</v>
       </c>
       <c r="BP23" s="1">
-        <v>1980.060000</v>
+        <v>1980.06</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1828.990000</v>
+        <v>-1828.99</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>26632.974833</v>
       </c>
       <c r="BT23" s="1">
-        <v>7.398049</v>
+        <v>7.3980490000000003</v>
       </c>
       <c r="BU23" s="1">
-        <v>2367.400000</v>
+        <v>2367.4</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2716.670000</v>
+        <v>-2716.67</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>26644.091668</v>
+        <v>26644.091668000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>7.401137</v>
+        <v>7.4011370000000003</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2850.590000</v>
+        <v>2850.59</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3690.310000</v>
+        <v>-3690.31</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>26656.982193</v>
       </c>
       <c r="CD23" s="1">
-        <v>7.404717</v>
+        <v>7.4047169999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>4274.830000</v>
+        <v>4274.83</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6023.040000</v>
+        <v>-6023.04</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>26481.581283</v>
       </c>
       <c r="B24" s="1">
-        <v>7.355995</v>
+        <v>7.3559950000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1244.740000</v>
+        <v>1244.74</v>
       </c>
       <c r="D24" s="1">
-        <v>-310.464000</v>
+        <v>-310.464</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>26491.787463</v>
+        <v>26491.787463000001</v>
       </c>
       <c r="G24" s="1">
-        <v>7.358830</v>
+        <v>7.3588300000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1270.930000</v>
+        <v>1270.93</v>
       </c>
       <c r="I24" s="1">
-        <v>-267.497000</v>
+        <v>-267.49700000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>26502.264953</v>
+        <v>26502.264953000002</v>
       </c>
       <c r="L24" s="1">
-        <v>7.361740</v>
+        <v>7.3617400000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>1306.150000</v>
+        <v>1306.1500000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-204.044000</v>
+        <v>-204.04400000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>26512.864000</v>
+        <v>26512.864000000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>7.364684</v>
+        <v>7.3646839999999996</v>
       </c>
       <c r="R24" s="1">
-        <v>1317.590000</v>
+        <v>1317.59</v>
       </c>
       <c r="S24" s="1">
-        <v>-185.648000</v>
+        <v>-185.648</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>26523.234348</v>
+        <v>26523.234348000002</v>
       </c>
       <c r="V24" s="1">
-        <v>7.367565</v>
+        <v>7.3675649999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1330.370000</v>
+        <v>1330.37</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.737000</v>
+        <v>-171.73699999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>26533.766366</v>
       </c>
       <c r="AA24" s="1">
-        <v>7.370491</v>
+        <v>7.3704910000000003</v>
       </c>
       <c r="AB24" s="1">
-        <v>1347.630000</v>
+        <v>1347.63</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.167000</v>
+        <v>-169.167</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>26544.215089</v>
+        <v>26544.215089000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>7.373393</v>
+        <v>7.3733930000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1360.440000</v>
+        <v>1360.44</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.623000</v>
+        <v>-178.62299999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>26554.744164</v>
       </c>
       <c r="AK24" s="1">
-        <v>7.376318</v>
+        <v>7.3763180000000004</v>
       </c>
       <c r="AL24" s="1">
-        <v>1381.000000</v>
+        <v>1381</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.425000</v>
+        <v>-208.42500000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>26565.738020</v>
+        <v>26565.738020000001</v>
       </c>
       <c r="AP24" s="1">
         <v>7.379372</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1402.510000</v>
+        <v>1402.51</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.210000</v>
+        <v>-252.21</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>26576.850391</v>
       </c>
       <c r="AU24" s="1">
-        <v>7.382458</v>
+        <v>7.3824579999999997</v>
       </c>
       <c r="AV24" s="1">
-        <v>1427.010000</v>
+        <v>1427.01</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.102000</v>
+        <v>-312.10199999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>26587.773255</v>
       </c>
       <c r="AZ24" s="1">
-        <v>7.385493</v>
+        <v>7.3854930000000003</v>
       </c>
       <c r="BA24" s="1">
-        <v>1446.280000</v>
+        <v>1446.28</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.243000</v>
+        <v>-364.24299999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>26598.757325</v>
+        <v>26598.757324999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>7.388544</v>
+        <v>7.3885439999999996</v>
       </c>
       <c r="BF24" s="1">
-        <v>1531.380000</v>
+        <v>1531.38</v>
       </c>
       <c r="BG24" s="1">
-        <v>-612.627000</v>
+        <v>-612.62699999999995</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>26610.184656</v>
+        <v>26610.184656000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>7.391718</v>
       </c>
       <c r="BK24" s="1">
-        <v>1685.750000</v>
+        <v>1685.75</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1057.890000</v>
+        <v>-1057.8900000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>26622.469070</v>
+        <v>26622.469069999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>7.395130</v>
+        <v>7.39513</v>
       </c>
       <c r="BP24" s="1">
-        <v>1980.100000</v>
+        <v>1980.1</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1828.880000</v>
+        <v>-1828.88</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>26633.391499</v>
+        <v>26633.391499000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>7.398164</v>
+        <v>7.3981640000000004</v>
       </c>
       <c r="BU24" s="1">
-        <v>2367.370000</v>
+        <v>2367.37</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2716.050000</v>
+        <v>-2716.05</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>26644.514257</v>
+        <v>26644.514256999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>7.401254</v>
+        <v>7.4012539999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2850.250000</v>
+        <v>2850.25</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3690.690000</v>
+        <v>-3690.69</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>26657.537216</v>
+        <v>26657.537216000001</v>
       </c>
       <c r="CD24" s="1">
         <v>7.404871</v>
       </c>
       <c r="CE24" s="1">
-        <v>4281.420000</v>
+        <v>4281.42</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6037.310000</v>
+        <v>-6037.31</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>26482.001421</v>
+        <v>26482.001421000001</v>
       </c>
       <c r="B25" s="1">
-        <v>7.356112</v>
+        <v>7.3561120000000004</v>
       </c>
       <c r="C25" s="1">
-        <v>1245.060000</v>
+        <v>1245.06</v>
       </c>
       <c r="D25" s="1">
-        <v>-310.472000</v>
+        <v>-310.47199999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>26492.066711</v>
+        <v>26492.066710999999</v>
       </c>
       <c r="G25" s="1">
-        <v>7.358907</v>
+        <v>7.3589070000000003</v>
       </c>
       <c r="H25" s="1">
-        <v>1270.450000</v>
+        <v>1270.45</v>
       </c>
       <c r="I25" s="1">
-        <v>-268.245000</v>
+        <v>-268.245</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>26502.564072</v>
+        <v>26502.564072000001</v>
       </c>
       <c r="L25" s="1">
-        <v>7.361823</v>
+        <v>7.3618230000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>1305.870000</v>
+        <v>1305.8699999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-204.082000</v>
+        <v>-204.08199999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>26513.145226</v>
+        <v>26513.145226000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>7.364763</v>
+        <v>7.3647629999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1317.570000</v>
+        <v>1317.57</v>
       </c>
       <c r="S25" s="1">
-        <v>-185.660000</v>
+        <v>-185.66</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>26523.577084</v>
       </c>
       <c r="V25" s="1">
-        <v>7.367660</v>
+        <v>7.3676599999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1330.490000</v>
+        <v>1330.49</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.674000</v>
+        <v>-171.67400000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>26534.113599</v>
       </c>
       <c r="AA25" s="1">
-        <v>7.370587</v>
+        <v>7.3705870000000004</v>
       </c>
       <c r="AB25" s="1">
-        <v>1347.680000</v>
+        <v>1347.68</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.091000</v>
+        <v>-169.09100000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>26544.556368</v>
+        <v>26544.556368000001</v>
       </c>
       <c r="AF25" s="1">
         <v>7.373488</v>
       </c>
       <c r="AG25" s="1">
-        <v>1360.480000</v>
+        <v>1360.48</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.713000</v>
+        <v>-178.71299999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>26555.096322</v>
+        <v>26555.096322000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>7.376416</v>
+        <v>7.3764159999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1380.990000</v>
+        <v>1380.99</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.429000</v>
+        <v>-208.429</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>26566.100069</v>
       </c>
       <c r="AP25" s="1">
-        <v>7.379472</v>
+        <v>7.3794719999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1402.550000</v>
+        <v>1402.55</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.200000</v>
+        <v>-252.2</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>26577.218885</v>
+        <v>26577.218884999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>7.382561</v>
+        <v>7.3825609999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1426.990000</v>
+        <v>1426.99</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.149000</v>
+        <v>-312.149</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>26588.132854</v>
+        <v>26588.132853999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>7.385592</v>
+        <v>7.3855919999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1446.310000</v>
+        <v>1446.31</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.233000</v>
+        <v>-364.233</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>26599.120397</v>
+        <v>26599.120396999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>7.388645</v>
+        <v>7.3886450000000004</v>
       </c>
       <c r="BF25" s="1">
-        <v>1531.350000</v>
+        <v>1531.35</v>
       </c>
       <c r="BG25" s="1">
-        <v>-612.588000</v>
+        <v>-612.58799999999997</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>26610.928929</v>
+        <v>26610.928929000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>7.391925</v>
+        <v>7.3919249999999996</v>
       </c>
       <c r="BK25" s="1">
-        <v>1685.700000</v>
+        <v>1685.7</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1057.890000</v>
+        <v>-1057.8900000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>26622.884253</v>
       </c>
       <c r="BO25" s="1">
-        <v>7.395246</v>
+        <v>7.3952460000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1980.110000</v>
+        <v>1980.11</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1828.860000</v>
+        <v>-1828.86</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>26633.820015</v>
+        <v>26633.820015000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>7.398283</v>
+        <v>7.3982830000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>2367.560000</v>
+        <v>2367.56</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2716.270000</v>
+        <v>-2716.27</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>26644.939824</v>
+        <v>26644.939824000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>7.401372</v>
+        <v>7.4013720000000003</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2850.170000</v>
+        <v>2850.17</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3690.830000</v>
+        <v>-3690.83</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>26658.374575</v>
+        <v>26658.374575000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>7.405104</v>
+        <v>7.4051039999999997</v>
       </c>
       <c r="CE25" s="1">
-        <v>4271.860000</v>
+        <v>4271.8599999999997</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6021.750000</v>
+        <v>-6021.75</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>26482.281138</v>
+        <v>26482.281137999998</v>
       </c>
       <c r="B26" s="1">
-        <v>7.356189</v>
+        <v>7.3561889999999996</v>
       </c>
       <c r="C26" s="1">
-        <v>1244.400000</v>
+        <v>1244.4000000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-310.592000</v>
+        <v>-310.59199999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>26492.411925</v>
       </c>
       <c r="G26" s="1">
-        <v>7.359003</v>
+        <v>7.3590030000000004</v>
       </c>
       <c r="H26" s="1">
-        <v>1269.690000</v>
+        <v>1269.69</v>
       </c>
       <c r="I26" s="1">
-        <v>-267.696000</v>
+        <v>-267.69600000000003</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>26502.910743</v>
       </c>
       <c r="L26" s="1">
-        <v>7.361920</v>
+        <v>7.3619199999999996</v>
       </c>
       <c r="M26" s="1">
-        <v>1306.190000</v>
+        <v>1306.19</v>
       </c>
       <c r="N26" s="1">
-        <v>-204.287000</v>
+        <v>-204.28700000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>26513.491439</v>
+        <v>26513.491439000001</v>
       </c>
       <c r="Q26" s="1">
         <v>7.364859</v>
       </c>
       <c r="R26" s="1">
-        <v>1317.420000</v>
+        <v>1317.42</v>
       </c>
       <c r="S26" s="1">
-        <v>-185.674000</v>
+        <v>-185.67400000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>26523.921803</v>
+        <v>26523.921803000001</v>
       </c>
       <c r="V26" s="1">
         <v>7.367756</v>
       </c>
       <c r="W26" s="1">
-        <v>1330.550000</v>
+        <v>1330.55</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.663000</v>
+        <v>-171.66300000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>26534.460798</v>
       </c>
       <c r="AA26" s="1">
-        <v>7.370684</v>
+        <v>7.3706839999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1347.610000</v>
+        <v>1347.61</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.023000</v>
+        <v>-169.023</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>26544.902082</v>
+        <v>26544.902082000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>7.373584</v>
+        <v>7.3735840000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1360.520000</v>
+        <v>1360.52</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.716000</v>
+        <v>-178.71600000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>26555.445047</v>
+        <v>26555.445047000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>7.376513</v>
+        <v>7.3765130000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1380.970000</v>
+        <v>1380.97</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.429000</v>
+        <v>-208.429</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>26566.458207</v>
       </c>
       <c r="AP26" s="1">
-        <v>7.379572</v>
+        <v>7.3795719999999996</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1402.550000</v>
+        <v>1402.55</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.160000</v>
+        <v>-252.16</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>26577.580965</v>
+        <v>26577.580965000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>7.382661</v>
+        <v>7.3826609999999997</v>
       </c>
       <c r="AV26" s="1">
-        <v>1427.000000</v>
+        <v>1427</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.125000</v>
+        <v>-312.125</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>26588.852054</v>
+        <v>26588.852053999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>7.385792</v>
+        <v>7.3857920000000004</v>
       </c>
       <c r="BA26" s="1">
-        <v>1446.290000</v>
+        <v>1446.29</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.207000</v>
+        <v>-364.20699999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>26599.843068</v>
+        <v>26599.843067999998</v>
       </c>
       <c r="BE26" s="1">
-        <v>7.388845</v>
+        <v>7.3888449999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1531.360000</v>
+        <v>1531.36</v>
       </c>
       <c r="BG26" s="1">
-        <v>-612.624000</v>
+        <v>-612.62400000000002</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>26611.333422</v>
       </c>
       <c r="BJ26" s="1">
-        <v>7.392037</v>
+        <v>7.3920370000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1685.760000</v>
+        <v>1685.76</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1057.860000</v>
+        <v>-1057.8599999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>26623.284991</v>
       </c>
       <c r="BO26" s="1">
-        <v>7.395357</v>
+        <v>7.3953569999999997</v>
       </c>
       <c r="BP26" s="1">
-        <v>1980.020000</v>
+        <v>1980.02</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1828.910000</v>
+        <v>-1828.91</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>26634.224751</v>
+        <v>26634.224751000002</v>
       </c>
       <c r="BT26" s="1">
         <v>7.398396</v>
       </c>
       <c r="BU26" s="1">
-        <v>2367.780000</v>
+        <v>2367.7800000000002</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2716.230000</v>
+        <v>-2716.23</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>26645.694241</v>
+        <v>26645.694241000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>7.401582</v>
+        <v>7.4015820000000003</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2851.340000</v>
+        <v>2851.34</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3690.780000</v>
+        <v>-3690.78</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>26658.617006</v>
       </c>
       <c r="CD26" s="1">
-        <v>7.405171</v>
+        <v>7.4051710000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>4260.230000</v>
+        <v>4260.2299999999996</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6036.600000</v>
+        <v>-6036.6</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>